--- a/sriramModel-nelson-atypical-patientID_22-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_22-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.5377966743346</v>
+        <v>13.4671445072765</v>
       </c>
       <c r="C2">
-        <v>13.53634831286256</v>
+        <v>13.67148803540383</v>
       </c>
       <c r="D2">
-        <v>13.50008146078352</v>
+        <v>13.4980044135153</v>
       </c>
       <c r="E2">
-        <v>13.58195912679284</v>
+        <v>13.46725898478386</v>
       </c>
       <c r="F2">
-        <v>13.47237345198667</v>
+        <v>13.42699755636684</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.5740483116566</v>
+        <v>13.43567747734333</v>
       </c>
       <c r="C3">
-        <v>13.57600001412898</v>
+        <v>13.86051826434347</v>
       </c>
       <c r="D3">
-        <v>13.5005644497095</v>
+        <v>13.49690841445198</v>
       </c>
       <c r="E3">
-        <v>13.6643897182028</v>
+        <v>13.43623332751791</v>
       </c>
       <c r="F3">
-        <v>13.44609484773165</v>
+        <v>13.3582255411737</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.60880902135001</v>
+        <v>13.4055964749346</v>
       </c>
       <c r="C4">
-        <v>13.61837450743855</v>
+        <v>14.06264174718064</v>
       </c>
       <c r="D4">
-        <v>13.50144512940599</v>
+        <v>13.49670100578232</v>
       </c>
       <c r="E4">
-        <v>13.74549180385501</v>
+        <v>13.4069123096345</v>
       </c>
       <c r="F4">
-        <v>13.42114205812983</v>
+        <v>13.29359848410786</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.64213245748691</v>
+        <v>13.37689892373708</v>
       </c>
       <c r="C5">
-        <v>13.66295002645018</v>
+        <v>14.26978749604754</v>
       </c>
       <c r="D5">
-        <v>13.50271934828348</v>
+        <v>13.49737104409667</v>
       </c>
       <c r="E5">
-        <v>13.82403130198155</v>
+        <v>13.37928508536357</v>
       </c>
       <c r="F5">
-        <v>13.39749465790594</v>
+        <v>13.23303219350622</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.67407084137511</v>
+        <v>13.34958229594449</v>
       </c>
       <c r="C6">
-        <v>13.70926067710599</v>
+        <v>14.46967154013914</v>
       </c>
       <c r="D6">
-        <v>13.50438288931029</v>
+        <v>13.4989076791355</v>
       </c>
       <c r="E6">
-        <v>13.89920645002572</v>
+        <v>13.35334087701387</v>
       </c>
       <c r="F6">
-        <v>13.3751337228495</v>
+        <v>13.17644391185036</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.70467408434659</v>
+        <v>13.3236441095694</v>
       </c>
       <c r="C7">
-        <v>13.75689167970927</v>
+        <v>14.64777917177061</v>
       </c>
       <c r="D7">
-        <v>13.50643144120855</v>
+        <v>13.50130031712951</v>
       </c>
       <c r="E7">
-        <v>13.97053452112765</v>
+        <v>13.32906895113042</v>
       </c>
       <c r="F7">
-        <v>13.35404162183327</v>
+        <v>13.12375228410573</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.73398910116815</v>
+        <v>13.2990819183277</v>
       </c>
       <c r="C8">
-        <v>13.80547346975163</v>
+        <v>14.79239844256905</v>
       </c>
       <c r="D8">
-        <v>13.50886058811731</v>
+        <v>13.50453858874131</v>
       </c>
       <c r="E8">
-        <v>14.03776404955232</v>
+        <v>13.30645861653015</v>
       </c>
       <c r="F8">
-        <v>13.33420186618755</v>
+        <v>13.07487727197554</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.76205925974898</v>
+        <v>13.27589331278744</v>
       </c>
       <c r="C9">
-        <v>13.85467835701252</v>
+        <v>14.89930234583959</v>
       </c>
       <c r="D9">
-        <v>13.5116658054004</v>
+        <v>13.50861231308551</v>
       </c>
       <c r="E9">
-        <v>14.10080579324976</v>
+        <v>13.28549922138196</v>
       </c>
       <c r="F9">
-        <v>13.31559897635937</v>
+        <v>13.02974019068676</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.78892387986009</v>
+        <v>13.25407591922598</v>
       </c>
       <c r="C10">
-        <v>13.90421677210575</v>
+        <v>14.9719122853624</v>
       </c>
       <c r="D10">
-        <v>13.51484246110309</v>
+        <v>13.51351149461072</v>
       </c>
       <c r="E10">
-        <v>14.15968222731579</v>
+        <v>13.26618014586816</v>
       </c>
       <c r="F10">
-        <v>13.29821836669675</v>
+        <v>12.9882637067961</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.81461784732518</v>
+        <v>13.23362739942542</v>
       </c>
       <c r="C11">
-        <v>13.95383332198161</v>
+        <v>15.01763854219159</v>
       </c>
       <c r="D11">
-        <v>13.51838581015243</v>
+        <v>13.519226324062</v>
       </c>
       <c r="E11">
-        <v>14.21449086753362</v>
+        <v>13.2484907936332</v>
       </c>
       <c r="F11">
-        <v>13.28204625145515</v>
+        <v>12.95037182281668</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.83917147661664</v>
+        <v>13.2145454461029</v>
       </c>
       <c r="C12">
-        <v>14.00330345413286</v>
+        <v>15.04418998266459</v>
       </c>
       <c r="D12">
-        <v>13.52229104197391</v>
+        <v>13.52574717663059</v>
       </c>
       <c r="E12">
-        <v>14.26537647789381</v>
+        <v>13.23242058491409</v>
       </c>
       <c r="F12">
-        <v>13.26706956737549</v>
+        <v>12.91598986545148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.86261052202634</v>
+        <v>13.19682778235085</v>
       </c>
       <c r="C13">
-        <v>14.05243061613071</v>
+        <v>15.05777599950524</v>
       </c>
       <c r="D13">
-        <v>13.52655319579875</v>
+        <v>13.53306459710519</v>
       </c>
       <c r="E13">
-        <v>14.31251262058882</v>
+        <v>13.21795894776687</v>
       </c>
       <c r="F13">
-        <v>13.25327589568955</v>
+        <v>12.88504446310593</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.88495651737373</v>
+        <v>13.18047216035923</v>
       </c>
       <c r="C14">
-        <v>14.10104341066909</v>
+        <v>15.06281457426228</v>
       </c>
       <c r="D14">
-        <v>13.53116718797852</v>
+        <v>13.54116928466719</v>
       </c>
       <c r="E14">
-        <v>14.35608803690346</v>
+        <v>13.2050953152481</v>
       </c>
       <c r="F14">
-        <v>13.24065339764555</v>
+        <v>12.85746351256438</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.90622750641363</v>
+        <v>13.16547635974368</v>
       </c>
       <c r="C15">
-        <v>14.1489929621911</v>
+        <v>15.06226125364946</v>
       </c>
       <c r="D15">
-        <v>13.53612782107897</v>
+        <v>13.5500520830085</v>
       </c>
       <c r="E15">
-        <v>14.3962974475013</v>
+        <v>13.19381911585783</v>
       </c>
       <c r="F15">
-        <v>13.22919076230702</v>
+        <v>12.83317614767244</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.9264391741819</v>
+        <v>13.15183818725874</v>
       </c>
       <c r="C16">
-        <v>14.19615055749418</v>
+        <v>15.05804022879865</v>
       </c>
       <c r="D16">
-        <v>13.54142978255041</v>
+        <v>13.55970397399471</v>
       </c>
       <c r="E16">
-        <v>14.43333529228175</v>
+        <v>13.18411976369424</v>
       </c>
       <c r="F16">
-        <v>13.21887715922072</v>
+        <v>12.81211270206936</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.94560634194731</v>
+        <v>13.13955547496289</v>
       </c>
       <c r="C17">
-        <v>14.24240547811836</v>
+        <v>15.0513931863667</v>
       </c>
       <c r="D17">
-        <v>13.54706763255463</v>
+        <v>13.57011606841178</v>
       </c>
       <c r="E17">
-        <v>14.46739156209812</v>
+        <v>13.17598665316059</v>
       </c>
       <c r="F17">
-        <v>13.20970219585765</v>
+        <v>12.79420467360746</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.96374464323409</v>
+        <v>13.12862607857323</v>
       </c>
       <c r="C18">
-        <v>14.2876631273292</v>
+        <v>15.04312304750785</v>
       </c>
       <c r="D18">
-        <v>13.55303580861468</v>
+        <v>13.58127960061965</v>
       </c>
       <c r="E18">
-        <v>14.49864917512972</v>
+        <v>13.16940914900803</v>
       </c>
       <c r="F18">
-        <v>13.20165587602433</v>
+        <v>12.7793846805199</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.98087208737057</v>
+        <v>13.11904787710121</v>
       </c>
       <c r="C19">
-        <v>14.33184330906138</v>
+        <v>15.03375304888596</v>
       </c>
       <c r="D19">
-        <v>13.55932861070651</v>
+        <v>13.59318591947936</v>
       </c>
       <c r="E19">
-        <v>14.5272822978068</v>
+        <v>13.16437657473735</v>
       </c>
       <c r="F19">
-        <v>13.19472856763302</v>
+        <v>12.76758640916139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.99701019836447</v>
+        <v>13.11081877010539</v>
       </c>
       <c r="C20">
-        <v>14.37487861710812</v>
+        <v>15.02362791790727</v>
       </c>
       <c r="D20">
-        <v>13.56594020104938</v>
+        <v>13.60582649035637</v>
       </c>
       <c r="E20">
-        <v>14.55345558669022</v>
+        <v>13.16087820468753</v>
       </c>
       <c r="F20">
-        <v>13.18891095729799</v>
+        <v>12.75874456627284</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.01218451631484</v>
+        <v>13.10393667827383</v>
       </c>
       <c r="C21">
-        <v>14.41671299622265</v>
+        <v>15.01297759709559</v>
       </c>
       <c r="D21">
-        <v>13.57286460410833</v>
+        <v>13.61919285697564</v>
       </c>
       <c r="E21">
-        <v>14.57732388877511</v>
+        <v>13.15890325759529</v>
       </c>
       <c r="F21">
-        <v>13.18419404002189</v>
+        <v>12.75279482544674</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.02642443709178</v>
+        <v>13.09839954023497</v>
       </c>
       <c r="C22">
-        <v>14.45730045506879</v>
+        <v>15.00195744716059</v>
       </c>
       <c r="D22">
-        <v>13.58009569213551</v>
+        <v>13.63327667927312</v>
       </c>
       <c r="E22">
-        <v>14.59903217878291</v>
+        <v>13.15844088121358</v>
       </c>
       <c r="F22">
-        <v>13.18056908546339</v>
+        <v>12.74967376622846</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.03976253652553</v>
+        <v>13.09420531288342</v>
       </c>
       <c r="C23">
-        <v>14.49660391713375</v>
+        <v>14.99067381078792</v>
       </c>
       <c r="D23">
-        <v>13.58762718820206</v>
+        <v>13.64806967060904</v>
       </c>
       <c r="E23">
-        <v>14.61871579168284</v>
+        <v>13.15948013794636</v>
       </c>
       <c r="F23">
-        <v>13.17802760926675</v>
+        <v>12.74931883083291</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.0522336321124</v>
+        <v>13.09135196860079</v>
       </c>
       <c r="C24">
-        <v>14.53459417841206</v>
+        <v>14.97920054057198</v>
       </c>
       <c r="D24">
-        <v>13.59545265737381</v>
+        <v>13.6635636349746</v>
       </c>
       <c r="E24">
-        <v>14.63650082706127</v>
+        <v>13.16201001750901</v>
       </c>
       <c r="F24">
-        <v>13.17656134791637</v>
+        <v>12.75166824484673</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.06387379141579</v>
+        <v>13.08983749490892</v>
       </c>
       <c r="C25">
-        <v>14.57124898948978</v>
+        <v>14.96758940550798</v>
       </c>
       <c r="D25">
-        <v>13.60356548662764</v>
+        <v>13.67975043008956</v>
       </c>
       <c r="E25">
-        <v>14.65250460998512</v>
+        <v>13.16601938273567</v>
       </c>
       <c r="F25">
-        <v>13.17616223496745</v>
+        <v>12.75666095863767</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>14.07471944730566</v>
+        <v>13.08965989228207</v>
       </c>
       <c r="C26">
-        <v>14.60655222467454</v>
+        <v>14.95587717790525</v>
       </c>
       <c r="D26">
-        <v>13.61195892153184</v>
+        <v>13.69662196416878</v>
       </c>
       <c r="E26">
-        <v>14.66683619623971</v>
+        <v>13.17149702050837</v>
       </c>
       <c r="F26">
-        <v>13.17682237953722</v>
+        <v>12.76423658214178</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>14.08480668794226</v>
+        <v>13.09081717322144</v>
       </c>
       <c r="C27">
-        <v>14.64049312877295</v>
+        <v>14.94409030865515</v>
       </c>
       <c r="D27">
-        <v>13.62062603147477</v>
+        <v>13.71417020597678</v>
       </c>
       <c r="E27">
-        <v>14.67959690157071</v>
+        <v>13.17843154752579</v>
       </c>
       <c r="F27">
-        <v>13.17853404278545</v>
+        <v>12.77433531419885</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>14.09417073742987</v>
+        <v>13.09330735968913</v>
       </c>
       <c r="C28">
-        <v>14.67306565254534</v>
+        <v>14.93224798488963</v>
       </c>
       <c r="D28">
-        <v>13.62955968257072</v>
+        <v>13.73238713832507</v>
       </c>
       <c r="E28">
-        <v>14.69088083242207</v>
+        <v>13.1868114783955</v>
       </c>
       <c r="F28">
-        <v>13.18128961381367</v>
+        <v>12.78689787634613</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>14.10284560667999</v>
+        <v>13.09712848234229</v>
       </c>
       <c r="C29">
-        <v>14.70426786017421</v>
+        <v>14.92036428117457</v>
       </c>
       <c r="D29">
-        <v>13.63875257583374</v>
+        <v>13.75126479241719</v>
       </c>
       <c r="E29">
-        <v>14.70077540033334</v>
+        <v>13.19662513750658</v>
       </c>
       <c r="F29">
-        <v>13.1850815850351</v>
+        <v>12.80186544460666</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14.11086386323235</v>
+        <v>13.10227857728521</v>
       </c>
       <c r="C30">
-        <v>14.73410140236009</v>
+        <v>14.90844968923435</v>
       </c>
       <c r="D30">
-        <v>13.648197191896</v>
+        <v>13.77079519711095</v>
       </c>
       <c r="E30">
-        <v>14.70936181278634</v>
+        <v>13.20786069804915</v>
       </c>
       <c r="F30">
-        <v>13.18990252556126</v>
+        <v>12.81917956133069</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14.11825651288345</v>
+        <v>13.10875568511363</v>
       </c>
       <c r="C31">
-        <v>14.76257104325938</v>
+        <v>14.8965120649416</v>
       </c>
       <c r="D31">
-        <v>13.65788581372352</v>
+        <v>13.79097039464012</v>
       </c>
       <c r="E31">
-        <v>14.71671554144874</v>
+        <v>13.22050613375842</v>
       </c>
       <c r="F31">
-        <v>13.19574505212752</v>
+        <v>12.83878206573146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>14.12505297107582</v>
+        <v>13.1165578473406</v>
       </c>
       <c r="C32">
-        <v>14.78968424127141</v>
+        <v>14.88455729637478</v>
       </c>
       <c r="D32">
-        <v>13.66781050823464</v>
+        <v>13.81178242549154</v>
       </c>
       <c r="E32">
-        <v>14.72290676047094</v>
+        <v>13.23454921960829</v>
       </c>
       <c r="F32">
-        <v>13.20260179712561</v>
+        <v>12.86061501519878</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>14.13128107010228</v>
+        <v>13.12568310475854</v>
       </c>
       <c r="C33">
-        <v>14.81545078265447</v>
+        <v>14.87258986186777</v>
       </c>
       <c r="D33">
-        <v>13.67796311640855</v>
+        <v>13.83322329350777</v>
       </c>
       <c r="E33">
-        <v>14.72800075445301</v>
+        <v>13.24997750625278</v>
       </c>
       <c r="F33">
-        <v>13.21046537246759</v>
+        <v>12.88462059880293</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>14.13696708936186</v>
+        <v>13.13612949370562</v>
       </c>
       <c r="C34">
-        <v>14.83988244895362</v>
+        <v>14.86061321395916</v>
       </c>
       <c r="D34">
-        <v>13.68833525264963</v>
+        <v>13.85528500303532</v>
       </c>
       <c r="E34">
-        <v>14.73205829752131</v>
+        <v>13.26677831064669</v>
       </c>
       <c r="F34">
-        <v>13.2193283276367</v>
+        <v>12.91074107343327</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>14.1421358113002</v>
+        <v>13.14789504341373</v>
       </c>
       <c r="C35">
-        <v>14.86299272626637</v>
+        <v>14.84863003051053</v>
       </c>
       <c r="D35">
-        <v>13.69891828740889</v>
+        <v>13.87795948609798</v>
       </c>
       <c r="E35">
-        <v>14.73513600350887</v>
+        <v>13.28493868211745</v>
       </c>
       <c r="F35">
-        <v>13.2291830999971</v>
+        <v>12.93891865891367</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>14.1468105958523</v>
+        <v>13.16097777211414</v>
       </c>
       <c r="C36">
-        <v>14.88479654838019</v>
+        <v>14.83664238766425</v>
       </c>
       <c r="D36">
-        <v>13.70970333924109</v>
+        <v>13.90123864233933</v>
       </c>
       <c r="E36">
-        <v>14.73728665324625</v>
+        <v>13.30444540302148</v>
       </c>
       <c r="F36">
-        <v>13.24002195560766</v>
+        <v>12.96909545385234</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>14.15101345878536</v>
+        <v>13.17537568297019</v>
       </c>
       <c r="C37">
-        <v>14.90531007065821</v>
+        <v>14.82465191161202</v>
       </c>
       <c r="D37">
-        <v>13.72068126377596</v>
+        <v>13.92511429151663</v>
       </c>
       <c r="E37">
-        <v>14.73855949361017</v>
+        <v>13.3252849390705</v>
       </c>
       <c r="F37">
-        <v>13.25183691778327</v>
+        <v>13.00121334836714</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>14.15476514884669</v>
+        <v>13.19108676012595</v>
       </c>
       <c r="C38">
-        <v>14.92455047077404</v>
+        <v>14.81265989142133</v>
       </c>
       <c r="D38">
-        <v>13.73184263270874</v>
+        <v>13.94957816153318</v>
       </c>
       <c r="E38">
-        <v>14.73900050812059</v>
+        <v>13.34744344420663</v>
       </c>
       <c r="F38">
-        <v>13.26461967857026</v>
+        <v>13.03521392954234</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>14.15808522354321</v>
+        <v>13.20810896257781</v>
       </c>
       <c r="C39">
-        <v>14.94253577179483</v>
+        <v>14.80066735486125</v>
       </c>
       <c r="D39">
-        <v>13.74317773372722</v>
+        <v>13.97462190654562</v>
       </c>
       <c r="E39">
-        <v>14.73865266505047</v>
+        <v>13.37090671164001</v>
       </c>
       <c r="F39">
-        <v>13.27836149023672</v>
+        <v>13.07103838608841</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>14.16099212610291</v>
+        <v>13.2264402204582</v>
       </c>
       <c r="C40">
-        <v>14.95928469380823</v>
+        <v>14.78867514006694</v>
       </c>
       <c r="D40">
-        <v>13.7546765465434</v>
+        <v>14.00023702798815</v>
       </c>
       <c r="E40">
-        <v>14.73755614964512</v>
+        <v>13.39566016686629</v>
       </c>
       <c r="F40">
-        <v>13.29305303016205</v>
+        <v>13.10862742576357</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>14.16350325809643</v>
+        <v>13.24607842601764</v>
       </c>
       <c r="C41">
-        <v>14.97481651875624</v>
+        <v>14.77668390857473</v>
       </c>
       <c r="D41">
-        <v>13.7663287344325</v>
+        <v>14.02641493258815</v>
       </c>
       <c r="E41">
-        <v>14.73574857505697</v>
+        <v>13.42168882797418</v>
       </c>
       <c r="F41">
-        <v>13.30868422982398</v>
+        <v>13.14792114815626</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>14.1656350474112</v>
+        <v>13.26702143021352</v>
       </c>
       <c r="C42">
-        <v>14.9891509750869</v>
+        <v>14.76469419087072</v>
       </c>
       <c r="D42">
-        <v>13.77812362447637</v>
+        <v>14.05314684330715</v>
       </c>
       <c r="E42">
-        <v>14.73326517972903</v>
+        <v>13.44897728633136</v>
       </c>
       <c r="F42">
-        <v>13.32524406212581</v>
+        <v>13.18885895204528</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>14.16740301204052</v>
+        <v>13.28926702965702</v>
       </c>
       <c r="C43">
-        <v>15.00230813806079</v>
+        <v>14.75270641874206</v>
       </c>
       <c r="D43">
-        <v>13.79005019472695</v>
+        <v>14.08042382572353</v>
       </c>
       <c r="E43">
-        <v>14.73013900374592</v>
+        <v>13.47750967068892</v>
       </c>
       <c r="F43">
-        <v>13.34272027197746</v>
+        <v>13.23137942762698</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>14.16882182032107</v>
+        <v>13.31281296437721</v>
       </c>
       <c r="C44">
-        <v>15.01430834405335</v>
+        <v>14.74072093668359</v>
       </c>
       <c r="D44">
-        <v>13.80209705223795</v>
+        <v>14.10823676038788</v>
       </c>
       <c r="E44">
-        <v>14.72640105081165</v>
+        <v>13.507269618969</v>
       </c>
       <c r="F44">
-        <v>13.36109901400535</v>
+        <v>13.27542023864125</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>14.16990534631246</v>
+        <v>13.33765689938696</v>
       </c>
       <c r="C45">
-        <v>15.02517212973908</v>
+        <v>14.72873804799309</v>
       </c>
       <c r="D45">
-        <v>13.81425241837767</v>
+        <v>14.13657627520761</v>
       </c>
       <c r="E45">
-        <v>14.72208043758994</v>
+        <v>13.53824024455586</v>
       </c>
       <c r="F45">
-        <v>13.38036443170295</v>
+        <v>13.32091802929731</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>14.17066672329876</v>
+        <v>13.36379642354818</v>
       </c>
       <c r="C46">
-        <v>15.03492013567812</v>
+        <v>14.71675797108113</v>
       </c>
       <c r="D46">
-        <v>13.82650410285203</v>
+        <v>14.16543281643991</v>
       </c>
       <c r="E46">
-        <v>14.71720453114672</v>
+        <v>13.57040409676672</v>
       </c>
       <c r="F46">
-        <v>13.40049810975612</v>
+        <v>13.36780828854365</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>14.17111839191846</v>
+        <v>13.39122902411125</v>
       </c>
       <c r="C47">
-        <v>15.04357310645866</v>
+        <v>14.70478094318368</v>
       </c>
       <c r="D47">
-        <v>13.83883948727941</v>
+        <v>14.19479650502238</v>
       </c>
       <c r="E47">
-        <v>14.71179907517813</v>
+        <v>13.60374313259823</v>
       </c>
       <c r="F47">
-        <v>13.4214783824388</v>
+        <v>13.41602522689453</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>14.17127214461116</v>
+        <v>13.41995208759583</v>
       </c>
       <c r="C48">
-        <v>15.05115176490586</v>
+        <v>14.69280710423834</v>
       </c>
       <c r="D48">
-        <v>13.85124549522335</v>
+        <v>14.22465721466147</v>
       </c>
       <c r="E48">
-        <v>14.70588830552228</v>
+        <v>13.63823866279676</v>
       </c>
       <c r="F48">
-        <v>13.44327947774546</v>
+        <v>13.46550165231747</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>14.17113916972481</v>
+        <v>13.44996286448793</v>
       </c>
       <c r="C49">
-        <v>15.0576768709298</v>
+        <v>14.6808366318041</v>
       </c>
       <c r="D49">
-        <v>13.86370857255889</v>
+        <v>14.255004474604</v>
       </c>
       <c r="E49">
-        <v>14.69949505744591</v>
+        <v>13.6738713299847</v>
       </c>
       <c r="F49">
-        <v>13.46587047116961</v>
+        <v>13.51616878542987</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>14.1707300863877</v>
+        <v>13.48125847334992</v>
       </c>
       <c r="C50">
-        <v>15.06316911569875</v>
+        <v>14.66886962406191</v>
       </c>
       <c r="D50">
-        <v>13.87621465396153</v>
+        <v>14.28582744346362</v>
       </c>
       <c r="E50">
-        <v>14.69264086176612</v>
+        <v>13.71062104045296</v>
       </c>
       <c r="F50">
-        <v>13.48921402044583</v>
+        <v>13.56795639309536</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>14.1700549812513</v>
+        <v>13.51383585224215</v>
       </c>
       <c r="C51">
-        <v>15.06764915097239</v>
+        <v>14.65690619615251</v>
       </c>
       <c r="D51">
-        <v>13.88874914755646</v>
+        <v>14.31711494561597</v>
       </c>
       <c r="E51">
-        <v>14.68534603553257</v>
+        <v>13.74846694635036</v>
       </c>
       <c r="F51">
-        <v>13.51326485979137</v>
+        <v>13.62079233739228</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>14.169123442486</v>
+        <v>13.54769176735782</v>
       </c>
       <c r="C52">
-        <v>15.07113753853279</v>
+        <v>14.64494642397496</v>
       </c>
       <c r="D52">
-        <v>13.90129687392329</v>
+        <v>14.34885530210918</v>
       </c>
       <c r="E52">
-        <v>14.67762976623031</v>
+        <v>13.78738736219112</v>
       </c>
       <c r="F52">
-        <v>13.53796807015824</v>
+        <v>13.67460260258133</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>14.16821820827951</v>
+        <v>13.58282274646385</v>
       </c>
       <c r="C53">
-        <v>15.07464515148944</v>
+        <v>14.6329903782309</v>
       </c>
       <c r="D53">
-        <v>13.91531202142999</v>
+        <v>14.38103645512259</v>
       </c>
       <c r="E53">
-        <v>14.66992183834371</v>
+        <v>13.82735975461114</v>
       </c>
       <c r="F53">
-        <v>13.57014471118189</v>
+        <v>13.72931108043658</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>14.16760205452215</v>
+        <v>13.61922509450369</v>
       </c>
       <c r="C54">
-        <v>15.07906494767597</v>
+        <v>14.62103811822038</v>
       </c>
       <c r="D54">
-        <v>13.93219309442768</v>
+        <v>14.41364577069757</v>
       </c>
       <c r="E54">
-        <v>14.6626126547199</v>
+        <v>13.86836064613952</v>
       </c>
       <c r="F54">
-        <v>13.61642219609382</v>
+        <v>13.78483952266243</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>14.16725541568545</v>
+        <v>13.65689480395511</v>
       </c>
       <c r="C55">
-        <v>15.08424785399183</v>
+        <v>14.60908969437784</v>
       </c>
       <c r="D55">
-        <v>13.95183826025614</v>
+        <v>14.44667009678419</v>
       </c>
       <c r="E55">
-        <v>14.65566424916931</v>
+        <v>13.91036560308892</v>
       </c>
       <c r="F55">
-        <v>13.67639230154568</v>
+        <v>13.84110744535127</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>14.16716014720084</v>
+        <v>13.69582757824653</v>
       </c>
       <c r="C56">
-        <v>15.09005729019971</v>
+        <v>14.5971451448224</v>
       </c>
       <c r="D56">
-        <v>13.97414235362819</v>
+        <v>14.48009569907596</v>
       </c>
       <c r="E56">
-        <v>14.64904220864943</v>
+        <v>13.95334912050623</v>
       </c>
       <c r="F56">
-        <v>13.74956253438412</v>
+        <v>13.89803201068171</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>14.16729939405253</v>
+        <v>13.736018709716</v>
       </c>
       <c r="C57">
-        <v>15.09636701581826</v>
+        <v>14.58520451279047</v>
       </c>
       <c r="D57">
-        <v>13.99899654738213</v>
+        <v>14.51390810548811</v>
       </c>
       <c r="E57">
-        <v>14.64271524617</v>
+        <v>13.99728462214888</v>
       </c>
       <c r="F57">
-        <v>13.83533854593271</v>
+        <v>13.95552794970784</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>14.1676575048749</v>
+        <v>13.77746311712567</v>
       </c>
       <c r="C58">
-        <v>15.10306124886608</v>
+        <v>14.57326784303305</v>
       </c>
       <c r="D58">
-        <v>14.02628807255653</v>
+        <v>14.54809229291672</v>
       </c>
       <c r="E58">
-        <v>14.63665489132305</v>
+        <v>14.04214432202505</v>
       </c>
       <c r="F58">
-        <v>13.93300580422025</v>
+        <v>14.01350746850937</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>14.16821998016425</v>
+        <v>13.82015517936255</v>
       </c>
       <c r="C59">
-        <v>15.11003389579721</v>
+        <v>14.56133514159796</v>
       </c>
       <c r="D59">
-        <v>14.05589983018494</v>
+        <v>14.58263234547787</v>
       </c>
       <c r="E59">
-        <v>14.63083521231971</v>
+        <v>14.08789922997902</v>
       </c>
       <c r="F59">
-        <v>14.04171296729832</v>
+        <v>14.07188022441055</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>14.16897332242393</v>
+        <v>13.86408879110151</v>
       </c>
       <c r="C60">
-        <v>15.11718757806559</v>
+        <v>14.54940644555603</v>
       </c>
       <c r="D60">
-        <v>14.08771020549245</v>
+        <v>14.61751152144242</v>
       </c>
       <c r="E60">
-        <v>14.62523258165246</v>
+        <v>14.13451899704605</v>
       </c>
       <c r="F60">
-        <v>14.16045770403976</v>
+        <v>14.13055333504724</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>14.16990495704463</v>
+        <v>13.90925713846611</v>
       </c>
       <c r="C61">
-        <v>15.12443315207687</v>
+        <v>14.53748179707388</v>
       </c>
       <c r="D61">
-        <v>14.12159278417289</v>
+        <v>14.65271216760888</v>
       </c>
       <c r="E61">
-        <v>14.6198255353924</v>
+        <v>14.18197192123223</v>
       </c>
       <c r="F61">
-        <v>14.28807659717188</v>
+        <v>14.18943140228587</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>14.1710031754054</v>
+        <v>13.95565277894482</v>
       </c>
       <c r="C62">
-        <v>15.13168928353669</v>
+        <v>14.52556120704639</v>
       </c>
       <c r="D62">
-        <v>14.15741597533155</v>
+        <v>14.68821566022476</v>
       </c>
       <c r="E62">
-        <v>14.61459442011475</v>
+        <v>14.23022477707592</v>
       </c>
       <c r="F62">
-        <v>14.4232413847165</v>
+        <v>14.24841663657728</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>14.17225707590958</v>
+        <v>14.00326733893672</v>
       </c>
       <c r="C63">
-        <v>15.13888190804393</v>
+        <v>14.51364468078734</v>
       </c>
       <c r="D63">
-        <v>14.19504264603449</v>
+        <v>14.72400231210425</v>
       </c>
       <c r="E63">
-        <v>14.6095212612805</v>
+        <v>14.27924282231132</v>
       </c>
       <c r="F63">
-        <v>14.56446374363127</v>
+        <v>14.30740900724129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>14.17365649463024</v>
+        <v>14.05209162733345</v>
       </c>
       <c r="C64">
-        <v>15.14594372678106</v>
+        <v>14.50173225696127</v>
       </c>
       <c r="D64">
-        <v>14.2343297312296</v>
+        <v>14.7600512767301</v>
       </c>
       <c r="E64">
-        <v>14.60458967645597</v>
+        <v>14.32898960886215</v>
       </c>
       <c r="F64">
-        <v>14.71011060450845</v>
+        <v>14.3663064790729</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>14.17519194537821</v>
+        <v>14.102115227646</v>
       </c>
       <c r="C65">
-        <v>15.1528137780753</v>
+        <v>14.48982395440492</v>
       </c>
       <c r="D65">
-        <v>14.27512783397932</v>
+        <v>14.79634045049807</v>
       </c>
       <c r="E65">
-        <v>14.59978470449871</v>
+        <v>14.3794269888558</v>
       </c>
       <c r="F65">
-        <v>14.85843136868165</v>
+        <v>14.42500529183388</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>14.17685456958602</v>
+        <v>14.15332665761841</v>
       </c>
       <c r="C66">
-        <v>15.15943704521928</v>
+        <v>14.47791976576277</v>
       </c>
       <c r="D66">
-        <v>14.31728076055118</v>
+        <v>14.83284636874486</v>
       </c>
       <c r="E66">
-        <v>14.59509265468864</v>
+        <v>14.43051491851619</v>
       </c>
       <c r="F66">
-        <v>15.0075971458361</v>
+        <v>14.48340038784527</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>14.17863609189689</v>
+        <v>14.20571282058797</v>
       </c>
       <c r="C67">
-        <v>15.16576407340126</v>
+        <v>14.46601971493766</v>
       </c>
       <c r="D67">
-        <v>14.36062508040932</v>
+        <v>14.86954409318595</v>
       </c>
       <c r="E67">
-        <v>14.59050099813156</v>
+        <v>14.48221143861459</v>
       </c>
       <c r="F67">
-        <v>15.15575107844058</v>
+        <v>14.54138590863192</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>14.1805287768334</v>
+        <v>14.25925922331134</v>
       </c>
       <c r="C68">
-        <v>15.1717506144422</v>
+        <v>14.45412381344171</v>
       </c>
       <c r="D68">
-        <v>14.40498961012031</v>
+        <v>14.90640708497001</v>
       </c>
       <c r="E68">
-        <v>14.58599827605235</v>
+        <v>14.53447249701215</v>
       </c>
       <c r="F68">
-        <v>15.30106668842028</v>
+        <v>14.59885577969835</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>14.18252538336652</v>
+        <v>14.3139492568306</v>
       </c>
       <c r="C69">
-        <v>15.17735723232011</v>
+        <v>14.44223206509496</v>
       </c>
       <c r="D69">
-        <v>14.45019493740354</v>
+        <v>14.94340708789132</v>
       </c>
       <c r="E69">
-        <v>14.58157400453882</v>
+        <v>14.58725188928475</v>
       </c>
       <c r="F69">
-        <v>15.44181000150254</v>
+        <v>14.65570434846018</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>14.18461915177851</v>
+        <v>14.36976445322885</v>
       </c>
       <c r="C70">
-        <v>15.18254909909228</v>
+        <v>14.43034447820953</v>
       </c>
       <c r="D70">
-        <v>14.49605288035832</v>
+        <v>14.98051397520442</v>
       </c>
       <c r="E70">
-        <v>14.577218585173</v>
+        <v>14.64050110466345</v>
       </c>
       <c r="F70">
-        <v>15.57639975950405</v>
+        <v>14.71182717301977</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>14.18680375655441</v>
+        <v>14.42668360575006</v>
       </c>
       <c r="C71">
-        <v>15.18729566042834</v>
+        <v>14.41846105753349</v>
       </c>
       <c r="D71">
-        <v>14.54236600768592</v>
+        <v>15.01769559436049</v>
       </c>
       <c r="E71">
-        <v>14.57292322989459</v>
+        <v>14.69416922733613</v>
       </c>
       <c r="F71">
-        <v>15.70346039485722</v>
+        <v>14.76712183180117</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>14.18907326360548</v>
+        <v>14.48468299458973</v>
       </c>
       <c r="C72">
-        <v>15.19157025685527</v>
+        <v>14.40658181099372</v>
       </c>
       <c r="D72">
-        <v>14.58892715194892</v>
+        <v>15.05491760621244</v>
       </c>
       <c r="E72">
-        <v>14.56867989850891</v>
+        <v>14.74820280530798</v>
       </c>
       <c r="F72">
-        <v>15.82186261555769</v>
+        <v>14.8214887499746</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>14.19142213191986</v>
+        <v>14.54373555754861</v>
       </c>
       <c r="C73">
-        <v>15.19534991546066</v>
+        <v>14.39470674404783</v>
       </c>
       <c r="D73">
-        <v>14.63551902270238</v>
+        <v>15.09214330921865</v>
       </c>
       <c r="E73">
-        <v>14.5644812129252</v>
+        <v>14.80254571727115</v>
       </c>
       <c r="F73">
-        <v>15.93074813301958</v>
+        <v>14.87483211003644</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>14.19384514329516</v>
+        <v>14.6038105059288</v>
       </c>
       <c r="C74">
-        <v>15.19861501415118</v>
+        <v>14.38283586104797</v>
       </c>
       <c r="D74">
-        <v>14.68191393677948</v>
+        <v>15.12933345180596</v>
       </c>
       <c r="E74">
-        <v>14.56032043492305</v>
+        <v>14.85713906167056</v>
       </c>
       <c r="F74">
-        <v>16.02953719297709</v>
+        <v>14.92706064476837</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>14.19633741350607</v>
+        <v>14.66487277204548</v>
       </c>
       <c r="C75">
-        <v>15.2013490598514</v>
+        <v>14.37096916697443</v>
       </c>
       <c r="D75">
-        <v>14.72787376702628</v>
+        <v>15.16644602750281</v>
       </c>
       <c r="E75">
-        <v>14.55619136683869</v>
+        <v>14.91192099950216</v>
       </c>
       <c r="F75">
-        <v>16.11791977294746</v>
+        <v>14.97808839492741</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>14.19889435015102</v>
+        <v>14.72688243757167</v>
       </c>
       <c r="C76">
-        <v>15.20353849176432</v>
+        <v>14.35910666697921</v>
       </c>
       <c r="D76">
-        <v>14.77315022922546</v>
+        <v>15.20343613512432</v>
       </c>
       <c r="E76">
-        <v>14.55208835677893</v>
+        <v>14.96682665745892</v>
       </c>
       <c r="F76">
-        <v>16.19583297893275</v>
+        <v>15.02783540644511</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>14.20151165454181</v>
+        <v>14.78979410866655</v>
       </c>
       <c r="C77">
-        <v>15.20517242987449</v>
+        <v>14.3472483670438</v>
       </c>
       <c r="D77">
-        <v>14.81748568519292</v>
+        <v>15.24025560490533</v>
       </c>
       <c r="E77">
-        <v>14.54800621836847</v>
+        <v>15.02178796608298</v>
       </c>
       <c r="F77">
-        <v>16.26342843707171</v>
+        <v>15.07622831209621</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>14.20418528699511</v>
+        <v>14.8535560451184</v>
       </c>
       <c r="C78">
-        <v>15.20624248652806</v>
+        <v>14.33539427276357</v>
       </c>
       <c r="D78">
-        <v>14.860614650066</v>
+        <v>15.27685285969487</v>
       </c>
       <c r="E78">
-        <v>14.54394021345295</v>
+        <v>15.07673356471751</v>
       </c>
       <c r="F78">
-        <v>16.32103396587576</v>
+        <v>15.12320076198341</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>14.20691145950438</v>
+        <v>14.91810925912077</v>
       </c>
       <c r="C79">
-        <v>15.20674252098043</v>
+        <v>14.32354438527532</v>
       </c>
       <c r="D79">
-        <v>14.90226635345195</v>
+        <v>15.3131727057311</v>
       </c>
       <c r="E79">
-        <v>14.53988601613573</v>
+        <v>15.13158866846874</v>
       </c>
       <c r="F79">
-        <v>16.3691127099181</v>
+        <v>15.16869370011278</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>14.20968661218724</v>
+        <v>14.983386679994</v>
       </c>
       <c r="C80">
-        <v>15.20666845263953</v>
+        <v>14.31169871125241</v>
       </c>
       <c r="D80">
-        <v>14.94216866107418</v>
+        <v>15.34915611632719</v>
       </c>
       <c r="E80">
-        <v>14.53583966215811</v>
+        <v>15.18627495344658</v>
       </c>
       <c r="F80">
-        <v>16.40822464133072</v>
+        <v>15.21265549682274</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>14.21250740320654</v>
+        <v>15.04931184315856</v>
       </c>
       <c r="C81">
-        <v>15.20601805803003</v>
+        <v>14.29985725580711</v>
       </c>
       <c r="D81">
-        <v>14.98005399582625</v>
+        <v>15.38473992928168</v>
       </c>
       <c r="E81">
-        <v>14.53179754280711</v>
+        <v>15.24071050591767</v>
       </c>
       <c r="F81">
-        <v>16.43899137202979</v>
+        <v>15.25504193316676</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>14.21537069327103</v>
+        <v>15.11579778587534</v>
       </c>
       <c r="C82">
-        <v>15.20479081271324</v>
+        <v>14.28802002014166</v>
       </c>
       <c r="D82">
-        <v>15.01566679674118</v>
+        <v>15.4198566296398</v>
       </c>
       <c r="E82">
-        <v>14.52775635004832</v>
+        <v>15.29480965363187</v>
       </c>
       <c r="F82">
-        <v>16.46206582200762</v>
+        <v>15.29581606950657</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>14.2182735149356</v>
+        <v>15.18274586377354</v>
       </c>
       <c r="C83">
-        <v>15.20298772790019</v>
+        <v>14.27618700857873</v>
       </c>
       <c r="D83">
-        <v>15.0487733739451</v>
+        <v>15.45443422270879</v>
       </c>
       <c r="E83">
-        <v>14.52371307778122</v>
+        <v>15.34848307763312</v>
       </c>
       <c r="F83">
-        <v>16.47810781631629</v>
+        <v>15.33494799836579</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>14.22121307138937</v>
+        <v>15.25004422250914</v>
       </c>
       <c r="C84">
-        <v>15.20061118827361</v>
+        <v>14.26435822419396</v>
       </c>
       <c r="D84">
-        <v>15.07917315758996</v>
+        <v>15.48839609880801</v>
       </c>
       <c r="E84">
-        <v>14.51966496696842</v>
+        <v>15.4016375142415</v>
       </c>
       <c r="F84">
-        <v>16.48776514588538</v>
+        <v>15.37241448901926</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>14.22418675931547</v>
+        <v>15.31756642204112</v>
       </c>
       <c r="C85">
-        <v>15.19766480755795</v>
+        <v>14.25253366998462</v>
       </c>
       <c r="D85">
-        <v>15.10671024319095</v>
+        <v>15.52166094743645</v>
       </c>
       <c r="E85">
-        <v>14.51560952384344</v>
+        <v>15.45417609646817</v>
       </c>
       <c r="F85">
-        <v>16.49165980004222</v>
+        <v>15.40819857896298</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>14.22706274281621</v>
+        <v>15.38517006975573</v>
       </c>
       <c r="C86">
-        <v>15.19400516974906</v>
+        <v>14.2407133485445</v>
       </c>
       <c r="D86">
-        <v>15.13105146503751</v>
+        <v>15.55414277512572</v>
       </c>
       <c r="E86">
-        <v>14.51139165426309</v>
+        <v>15.50599822082844</v>
       </c>
       <c r="F86">
-        <v>16.49027926732103</v>
+        <v>15.44228912021195</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>14.22971435466865</v>
+        <v>15.45269526121605</v>
       </c>
       <c r="C87">
-        <v>15.18950610906468</v>
+        <v>14.22889726190536</v>
       </c>
       <c r="D87">
-        <v>15.15199568103025</v>
+        <v>15.58575106116684</v>
       </c>
       <c r="E87">
-        <v>14.50686380656548</v>
+        <v>15.55699976128904</v>
       </c>
       <c r="F87">
-        <v>16.48411208837261</v>
+        <v>15.47468029828344</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>14.23214669108953</v>
+        <v>15.51996337497752</v>
       </c>
       <c r="C88">
-        <v>15.184196705546</v>
+        <v>14.21708541243943</v>
       </c>
       <c r="D88">
-        <v>15.1696605345609</v>
+        <v>15.61639109545512</v>
       </c>
       <c r="E88">
-        <v>14.50203442816562</v>
+        <v>15.6070732548721</v>
       </c>
       <c r="F88">
-        <v>16.47371440913885</v>
+        <v>15.50537113877126</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>14.23436490859572</v>
+        <v>15.5867759275055</v>
       </c>
       <c r="C89">
-        <v>15.17810554354713</v>
+        <v>14.20527780323966</v>
       </c>
       <c r="D89">
-        <v>15.18420656926862</v>
+        <v>15.64596452162206</v>
       </c>
       <c r="E89">
-        <v>14.49691191596496</v>
+        <v>15.65610811224092</v>
       </c>
       <c r="F89">
-        <v>16.45958380436482</v>
+        <v>15.53436501652788</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>14.23637396426209</v>
+        <v>15.65291361504385</v>
       </c>
       <c r="C90">
-        <v>15.17126072055408</v>
+        <v>14.19347443609532</v>
       </c>
       <c r="D90">
-        <v>15.19582662073284</v>
+        <v>15.67437013918829</v>
       </c>
       <c r="E90">
-        <v>14.49150425504304</v>
+        <v>15.70399102107137</v>
       </c>
       <c r="F90">
-        <v>16.44216425588495</v>
+        <v>15.56166918138603</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>14.23817863153731</v>
+        <v>15.71813622842883</v>
       </c>
       <c r="C91">
-        <v>15.16368905456095</v>
+        <v>14.18167531322884</v>
       </c>
       <c r="D91">
-        <v>15.20473384697296</v>
+        <v>15.70150501568005</v>
       </c>
       <c r="E91">
-        <v>14.48581918239801</v>
+        <v>15.75060646238122</v>
       </c>
       <c r="F91">
-        <v>16.42184868160482</v>
+        <v>15.58729431534349</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>14.23978351331071</v>
+        <v>15.78218295303847</v>
       </c>
       <c r="C92">
-        <v>15.15541630013945</v>
+        <v>14.16988043701615</v>
       </c>
       <c r="D92">
-        <v>15.21115021966554</v>
+        <v>15.7272659231336</v>
       </c>
       <c r="E92">
-        <v>14.47986415193941</v>
+        <v>15.79583738080655</v>
       </c>
       <c r="F92">
-        <v>16.39898542465488</v>
+        <v>15.61125410119629</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>14.24119306468336</v>
+        <v>15.84477339506709</v>
       </c>
       <c r="C93">
-        <v>15.14646746324515</v>
+        <v>14.15808980977368</v>
       </c>
       <c r="D93">
-        <v>15.21529659601496</v>
+        <v>15.75155113004367</v>
       </c>
       <c r="E93">
-        <v>14.47364630067583</v>
+        <v>15.83956590808497</v>
       </c>
       <c r="F93">
-        <v>16.37388234855615</v>
+        <v>15.63356482836611</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>14.24241156927441</v>
+        <v>15.90560955166324</v>
       </c>
       <c r="C94">
-        <v>15.13686677687144</v>
+        <v>14.14630343397026</v>
       </c>
       <c r="D94">
-        <v>15.21738583495883</v>
+        <v>15.77426248913311</v>
       </c>
       <c r="E94">
-        <v>14.46717251024918</v>
+        <v>15.88167422062659</v>
       </c>
       <c r="F94">
-        <v>16.34681056971537</v>
+        <v>15.65424503313889</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>14.24344323656803</v>
+        <v>15.9643789802042</v>
       </c>
       <c r="C95">
-        <v>15.12663762643458</v>
+        <v>14.13452131129528</v>
       </c>
       <c r="D95">
-        <v>15.21761805944506</v>
+        <v>15.79530775275403</v>
       </c>
       <c r="E95">
-        <v>14.46044943030832</v>
+        <v>15.92204558663299</v>
       </c>
       <c r="F95">
-        <v>16.31800827156452</v>
+        <v>15.67331518236998</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>14.24429212017545</v>
+        <v>16.02075914977159</v>
       </c>
       <c r="C96">
-        <v>15.11580260339489</v>
+        <v>14.12274344404261</v>
       </c>
       <c r="D96">
-        <v>15.21617810568658</v>
+        <v>15.81460298039155</v>
       </c>
       <c r="E96">
-        <v>14.45348344876276</v>
+        <v>15.96056559415149</v>
       </c>
       <c r="F96">
-        <v>16.28768504413221</v>
+        <v>15.69079735530898</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>14.24496214865606</v>
+        <v>16.07442311608721</v>
       </c>
       <c r="C97">
-        <v>15.10438347604168</v>
+        <v>14.11096983451256</v>
       </c>
       <c r="D97">
-        <v>15.21323457781839</v>
+        <v>15.83207487196873</v>
       </c>
       <c r="E97">
-        <v>14.44628076002347</v>
+        <v>15.99712349102499</v>
       </c>
       <c r="F97">
-        <v>16.25602538378571</v>
+        <v>15.70671499721528</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>14.24545714517686</v>
+        <v>16.12504629703855</v>
       </c>
       <c r="C98">
-        <v>15.09240124098942</v>
+        <v>14.09920048462118</v>
       </c>
       <c r="D98">
-        <v>15.20893982475947</v>
+        <v>15.84766277236638</v>
       </c>
       <c r="E98">
-        <v>14.43884732036866</v>
+        <v>16.03161361762904</v>
       </c>
       <c r="F98">
-        <v>16.22319136976889</v>
+        <v>15.72109265335105</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>14.24578078320101</v>
+        <v>16.17231422017517</v>
       </c>
       <c r="C99">
-        <v>15.07987614873631</v>
+        <v>14.08743539614853</v>
       </c>
       <c r="D99">
-        <v>15.20343061640236</v>
+        <v>15.86132019648</v>
       </c>
       <c r="E99">
-        <v>14.43118890148982</v>
+        <v>16.06393691127033</v>
       </c>
       <c r="F99">
-        <v>16.18932580434403</v>
+        <v>15.73395575588941</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>14.24593664175298</v>
+        <v>16.21593096797735</v>
       </c>
       <c r="C100">
-        <v>15.06682769594125</v>
+        <v>14.07567457109396</v>
       </c>
       <c r="D100">
-        <v>15.19682935855317</v>
+        <v>15.87301572357053</v>
       </c>
       <c r="E100">
-        <v>14.42331108070985</v>
+        <v>16.09400243792041</v>
       </c>
       <c r="F100">
-        <v>16.15455378411886</v>
+        <v>15.74533049174828</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14.24592818330343</v>
+        <v>16.25562786132471</v>
       </c>
       <c r="C101">
-        <v>15.05327470143895</v>
+        <v>14.06391801129451</v>
       </c>
       <c r="D101">
-        <v>15.18924537576907</v>
+        <v>15.88273319791106</v>
       </c>
       <c r="E101">
-        <v>14.41521923904351</v>
+        <v>16.12172888582656</v>
       </c>
       <c r="F101">
-        <v>16.11898494489674</v>
+        <v>15.75524358414771</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>14.24575877984999</v>
+        <v>16.29117183117121</v>
       </c>
       <c r="C102">
-        <v>15.03923527486022</v>
+        <v>14.05216571862426</v>
       </c>
       <c r="D102">
-        <v>15.18077612067303</v>
+        <v>15.89047121060914</v>
       </c>
       <c r="E102">
-        <v>14.40691860155293</v>
+        <v>16.14704594945108</v>
       </c>
       <c r="F102">
-        <v>16.08271575289919</v>
+        <v>15.7637221681669</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>14.24543170605359</v>
+        <v>16.32237289298507</v>
       </c>
       <c r="C103">
-        <v>15.02472687764194</v>
+        <v>14.04041769475978</v>
       </c>
       <c r="D103">
-        <v>15.17150839325523</v>
+        <v>15.89624199650434</v>
       </c>
       <c r="E103">
-        <v>14.39841419183607</v>
+        <v>16.16989552600423</v>
       </c>
       <c r="F103">
-        <v>16.04583107240813</v>
+        <v>15.77079367004985</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>14.24495014007215</v>
+        <v>16.34909016475952</v>
       </c>
       <c r="C104">
-        <v>15.00976632258598</v>
+        <v>14.0286739413642</v>
       </c>
       <c r="D104">
-        <v>15.16151953526542</v>
+        <v>15.90006992778474</v>
       </c>
       <c r="E104">
-        <v>14.38971090034444</v>
+        <v>16.19023265719238</v>
       </c>
       <c r="F104">
-        <v>16.00840588704203</v>
+        <v>15.77648567893376</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>14.24431717176439</v>
+        <v>16.37123604575295</v>
       </c>
       <c r="C105">
-        <v>14.9943697955859</v>
+        <v>14.01693446038277</v>
       </c>
       <c r="D105">
-        <v>15.15087852514653</v>
+        <v>15.90198970780598</v>
       </c>
       <c r="E105">
-        <v>14.38081342896684</v>
+        <v>16.20802615682859</v>
       </c>
       <c r="F105">
-        <v>15.97050612159537</v>
+        <v>15.78082583994379</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>14.24353580349529</v>
+        <v>16.38877815364254</v>
       </c>
       <c r="C106">
-        <v>14.97855288414173</v>
+        <v>14.00519925342673</v>
       </c>
       <c r="D106">
-        <v>15.13964693544276</v>
+        <v>15.90204449117585</v>
       </c>
       <c r="E106">
-        <v>14.37172635778036</v>
+        <v>16.22325889259453</v>
       </c>
       <c r="F106">
-        <v>15.93218998689531</v>
+        <v>15.78384179704723</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>14.24260895426499</v>
+        <v>16.4017381302766</v>
       </c>
       <c r="C107">
-        <v>14.96233058384741</v>
+        <v>13.99346832219824</v>
       </c>
       <c r="D107">
-        <v>15.127879781963</v>
+        <v>15.90028404554956</v>
       </c>
       <c r="E107">
-        <v>14.3624541016699</v>
+        <v>16.23592770899051</v>
       </c>
       <c r="F107">
-        <v>15.89350905241227</v>
+        <v>15.78556110518</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>14.24153946346699</v>
+        <v>16.41018948420157</v>
       </c>
       <c r="C108">
-        <v>14.94571733212731</v>
+        <v>13.9817416684097</v>
       </c>
       <c r="D108">
-        <v>15.11562628895389</v>
+        <v>15.89676304665256</v>
       </c>
       <c r="E108">
-        <v>14.3530009762667</v>
+        <v>16.24604296125819</v>
       </c>
       <c r="F108">
-        <v>15.85450851911557</v>
+        <v>15.78601115905581</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>14.24033007759503</v>
+        <v>16.41425293733052</v>
       </c>
       <c r="C109">
-        <v>14.92872702331823</v>
+        <v>13.97001929377543</v>
       </c>
       <c r="D109">
-        <v>15.10293056595303</v>
+        <v>15.89153957096853</v>
       </c>
       <c r="E109">
-        <v>14.34337110845143</v>
+        <v>16.25362774839754</v>
       </c>
       <c r="F109">
-        <v>15.81522842395508</v>
+        <v>15.78521916429119</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>14.23898350113668</v>
+        <v>16.41408998033602</v>
       </c>
       <c r="C110">
-        <v>14.91137302827869</v>
+        <v>13.95830120002085</v>
       </c>
       <c r="D110">
-        <v>15.0898322003185</v>
+        <v>15.88467380622216</v>
       </c>
       <c r="E110">
-        <v>14.3335684908695</v>
+        <v>16.25871686779051</v>
       </c>
       <c r="F110">
-        <v>15.77570422136577</v>
+        <v>15.78321207174274</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>14.23750232582288</v>
+        <v>16.40989546210007</v>
       </c>
       <c r="C111">
-        <v>14.89366821865757</v>
+        <v>13.94658738881479</v>
       </c>
       <c r="D111">
-        <v>15.07636677691417</v>
+        <v>15.87622698850503</v>
       </c>
       <c r="E111">
-        <v>14.32359712113884</v>
+        <v>16.26135556453922</v>
       </c>
       <c r="F111">
-        <v>15.73596731197494</v>
+        <v>15.78001653414899</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>14.23588908178086</v>
+        <v>16.4018899500111</v>
       </c>
       <c r="C112">
-        <v>14.87562497890451</v>
+        <v>13.93487786176767</v>
       </c>
       <c r="D112">
-        <v>15.06256633071973</v>
+        <v>15.86626053284688</v>
       </c>
       <c r="E112">
-        <v>14.31346071111934</v>
+        <v>16.26159814753082</v>
       </c>
       <c r="F112">
-        <v>15.69604554530804</v>
+        <v>15.77565888865684</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>14.23414626092994</v>
+        <v>16.39031201672809</v>
       </c>
       <c r="C113">
-        <v>14.85725522790769</v>
+        <v>13.92317262059898</v>
       </c>
       <c r="D113">
-        <v>15.04845974828622</v>
+        <v>15.85483537447008</v>
       </c>
       <c r="E113">
-        <v>14.30316287771659</v>
+        <v>16.25950654291336</v>
       </c>
       <c r="F113">
-        <v>15.6559637787432</v>
+        <v>15.77016512186889</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>14.23227625041216</v>
+        <v>16.37541089750774</v>
       </c>
       <c r="C114">
-        <v>14.83857044939131</v>
+        <v>13.9114716669696</v>
       </c>
       <c r="D114">
-        <v>15.03407311921361</v>
+        <v>15.84201143798618</v>
       </c>
       <c r="E114">
-        <v>14.29270725932272</v>
+        <v>16.25514884869775</v>
       </c>
       <c r="F114">
-        <v>15.61574402858418</v>
+        <v>15.76356084014911</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>14.23028139569409</v>
+        <v>16.35743992921225</v>
       </c>
       <c r="C115">
-        <v>14.81958168512018</v>
+        <v>13.89977500244884</v>
       </c>
       <c r="D115">
-        <v>15.01943003603118</v>
+        <v>15.8278472234272</v>
       </c>
       <c r="E115">
-        <v>14.2820972903816</v>
+        <v>16.2485979433431</v>
       </c>
       <c r="F115">
-        <v>15.57540588788345</v>
+        <v>15.75587126363047</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>14.22816398567794</v>
+        <v>16.33665096917702</v>
       </c>
       <c r="C116">
-        <v>14.8002995546474</v>
+        <v>13.8880826286814</v>
       </c>
       <c r="D116">
-        <v>15.00455187767654</v>
+        <v>15.81239954829361</v>
       </c>
       <c r="E116">
-        <v>14.2713362828198</v>
+        <v>16.23993018841565</v>
       </c>
       <c r="F116">
-        <v>15.53496684779974</v>
+        <v>15.74712120399733</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>14.22592624271349</v>
+        <v>16.31328980845683</v>
       </c>
       <c r="C117">
-        <v>14.78073431608981</v>
+        <v>13.87639454726508</v>
       </c>
       <c r="D117">
-        <v>14.98945804608139</v>
+        <v>15.7957233799156</v>
       </c>
       <c r="E117">
-        <v>14.26042750327619</v>
+        <v>16.22922425249028</v>
       </c>
       <c r="F117">
-        <v>15.49444247060313</v>
+        <v>15.73733504905791</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>14.22357033373907</v>
+        <v>16.28759258671866</v>
       </c>
       <c r="C118">
-        <v>14.76089582312533</v>
+        <v>13.86471075981544</v>
       </c>
       <c r="D118">
-        <v>14.974166168539</v>
+        <v>15.77787171422973</v>
       </c>
       <c r="E118">
-        <v>14.2493741476768</v>
+        <v>16.21656007472868</v>
       </c>
       <c r="F118">
-        <v>15.45384665710303</v>
+        <v>15.72653676012907</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>14.22109837681731</v>
+        <v>16.25978321295731</v>
       </c>
       <c r="C119">
-        <v>14.74079354053189</v>
+        <v>13.85303126790535</v>
       </c>
       <c r="D119">
-        <v>14.95869232378327</v>
+        <v>15.75889549592083</v>
       </c>
       <c r="E119">
-        <v>14.23817927868719</v>
+        <v>16.20201795761652</v>
       </c>
       <c r="F119">
-        <v>15.41319186321748</v>
+        <v>15.71474986260688</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>14.21851243630901</v>
+        <v>16.23007163423447</v>
       </c>
       <c r="C120">
-        <v>14.72043663325937</v>
+        <v>13.84135607310099</v>
       </c>
       <c r="D120">
-        <v>14.94305113321314</v>
+        <v>15.73884358307342</v>
       </c>
       <c r="E120">
-        <v>14.22684589369506</v>
+        <v>16.18567782047716</v>
       </c>
       <c r="F120">
-        <v>15.37248923135884</v>
+        <v>15.70199743814771</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>14.21581451677217</v>
+        <v>16.19865282099725</v>
       </c>
       <c r="C121">
-        <v>14.69983390278231</v>
+        <v>13.82968517699254</v>
       </c>
       <c r="D121">
-        <v>14.92725594261825</v>
+        <v>15.71776275199369</v>
       </c>
       <c r="E121">
-        <v>14.21537689451077</v>
+        <v>16.16761857198575</v>
       </c>
       <c r="F121">
-        <v>15.33174873643767</v>
+        <v>15.6883021271757</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>14.21300658317769</v>
+        <v>16.16570635320739</v>
       </c>
       <c r="C122">
-        <v>14.67899379839508</v>
+        <v>13.81801858116094</v>
       </c>
       <c r="D122">
-        <v>14.91131895014222</v>
+        <v>15.69569773043843</v>
       </c>
       <c r="E122">
-        <v>14.20377513028</v>
+        <v>16.14791760625219</v>
       </c>
       <c r="F122">
-        <v>15.29097934630395</v>
+        <v>15.67368612560329</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>14.21009054739881</v>
+        <v>16.13139649386857</v>
       </c>
       <c r="C123">
-        <v>14.65792450757177</v>
+        <v>13.80635628716467</v>
       </c>
       <c r="D123">
-        <v>14.89525132184527</v>
+        <v>15.67269124643065</v>
       </c>
       <c r="E123">
-        <v>14.19204337349294</v>
+        <v>16.12665040821699</v>
       </c>
       <c r="F123">
-        <v>15.25018910203399</v>
+        <v>15.65817118330135</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>14.20706827347783</v>
+        <v>16.09587260521856</v>
       </c>
       <c r="C124">
-        <v>14.63663389868404</v>
+        <v>13.79469829656974</v>
       </c>
       <c r="D124">
-        <v>14.87906329123921</v>
+        <v>15.64878408556478</v>
       </c>
       <c r="E124">
-        <v>14.18018427258245</v>
+        <v>16.10389026034143</v>
       </c>
       <c r="F124">
-        <v>15.20938522893216</v>
+        <v>15.64177860884875</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>14.20394158222222</v>
+        <v>16.05926981104643</v>
       </c>
       <c r="C125">
-        <v>14.61512952930032</v>
+        <v>13.78304461094161</v>
       </c>
       <c r="D125">
-        <v>14.86276424885891</v>
+        <v>15.62401515286611</v>
       </c>
       <c r="E125">
-        <v>14.16820045609505</v>
+        <v>16.07970801902406</v>
       </c>
       <c r="F125">
-        <v>15.16857423772607</v>
+        <v>15.62452927382777</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>14.20071225102801</v>
+        <v>16.02170984023095</v>
       </c>
       <c r="C126">
-        <v>14.59341872067568</v>
+        <v>13.77139523184699</v>
       </c>
       <c r="D126">
-        <v>14.84636282930385</v>
+        <v>15.59842154218428</v>
       </c>
       <c r="E126">
-        <v>14.1560944708227</v>
+        <v>16.05417196610259</v>
       </c>
       <c r="F126">
-        <v>15.12776199638154</v>
+        <v>15.6064436042325</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>14.19738201440914</v>
+        <v>15.98330195926053</v>
       </c>
       <c r="C127">
-        <v>14.57150851650355</v>
+        <v>13.75975016085159</v>
       </c>
       <c r="D127">
-        <v>14.8298669719146</v>
+        <v>15.57203861270717</v>
       </c>
       <c r="E127">
-        <v>14.14386878441974</v>
+        <v>16.02734771776815</v>
       </c>
       <c r="F127">
-        <v>15.08695379337282</v>
+        <v>15.58754160631024</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>14.19395256627704</v>
+        <v>15.94414393934813</v>
       </c>
       <c r="C128">
-        <v>14.54940568553519</v>
+        <v>13.74810939949052</v>
       </c>
       <c r="D128">
-        <v>14.81328398705807</v>
+        <v>15.54490006548921</v>
       </c>
       <c r="E128">
-        <v>14.13152580178462</v>
+        <v>15.9992981807339</v>
       </c>
       <c r="F128">
-        <v>15.04615440913391</v>
+        <v>15.56784284097003</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>14.19042556059554</v>
+        <v>15.90432304492774</v>
       </c>
       <c r="C129">
-        <v>14.52711678758858</v>
+        <v>13.73647294932952</v>
       </c>
       <c r="D129">
-        <v>14.79662061547982</v>
+        <v>15.51703801845489</v>
       </c>
       <c r="E129">
-        <v>14.11906787132043</v>
+        <v>15.97008354554769</v>
       </c>
       <c r="F129">
-        <v>15.00536816780871</v>
+        <v>15.54736645775908</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>14.18680261499803</v>
+        <v>15.86391699774539</v>
       </c>
       <c r="C130">
-        <v>14.50464813937694</v>
+        <v>13.72484081192323</v>
       </c>
       <c r="D130">
-        <v>14.77988307508173</v>
+        <v>15.48848308018217</v>
       </c>
       <c r="E130">
-        <v>14.10649727886791</v>
+        <v>15.93976130935829</v>
       </c>
       <c r="F130">
-        <v>14.96459897715021</v>
+        <v>15.52613118975758</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>14.18308531092808</v>
+        <v>15.82299495338569</v>
       </c>
       <c r="C131">
-        <v>14.48200580916324</v>
+        <v>13.71321298880923</v>
       </c>
       <c r="D131">
-        <v>14.76307711490151</v>
+        <v>15.45926442254775</v>
       </c>
       <c r="E131">
-        <v>14.09381625445122</v>
+        <v>15.90838632021958</v>
       </c>
       <c r="F131">
-        <v>14.92385037900972</v>
+        <v>15.50415535165205</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>14.17927519557899</v>
+        <v>15.78161834106323</v>
       </c>
       <c r="C132">
-        <v>14.45919568651329</v>
+        <v>13.70158948153202</v>
       </c>
       <c r="D132">
-        <v>14.74620805873856</v>
+        <v>15.4294098517091</v>
       </c>
       <c r="E132">
-        <v>14.08102696990116</v>
+        <v>15.87601084153002</v>
       </c>
       <c r="F132">
-        <v>14.88312558448314</v>
+        <v>15.48145686962385</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>14.17537376607867</v>
+        <v>15.73984166122617</v>
       </c>
       <c r="C133">
-        <v>14.43622344586354</v>
+        <v>13.68997029163268</v>
       </c>
       <c r="D133">
-        <v>14.72928082319855</v>
+        <v>15.39894587673657</v>
       </c>
       <c r="E133">
-        <v>14.06813154508322</v>
+        <v>15.8426846288133</v>
       </c>
       <c r="F133">
-        <v>14.84242749960891</v>
+        <v>15.45805326097556</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>14.17138250576616</v>
+        <v>15.69771322733575</v>
       </c>
       <c r="C134">
-        <v>14.41309453580328</v>
+        <v>13.67835542065058</v>
       </c>
       <c r="D134">
-        <v>14.71230001506701</v>
+        <v>15.36789777534556</v>
       </c>
       <c r="E134">
-        <v>14.05513204773768</v>
+        <v>15.80845501542561</v>
       </c>
       <c r="F134">
-        <v>14.80175879089763</v>
+        <v>15.43396166476302</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>14.16730286089438</v>
+        <v>15.65527584911494</v>
       </c>
       <c r="C135">
-        <v>14.38981425208364</v>
+        <v>13.66674487012318</v>
       </c>
       <c r="D135">
-        <v>14.69526984102784</v>
+        <v>15.3362896545839</v>
       </c>
       <c r="E135">
-        <v>14.04203049893348</v>
+        <v>15.77336700467591</v>
       </c>
       <c r="F135">
-        <v>14.76112183896957</v>
+        <v>15.40919883294951</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>14.16313624817567</v>
+        <v>15.61256744828955</v>
       </c>
       <c r="C136">
-        <v>14.36638769965174</v>
+        <v>13.65513864158223</v>
       </c>
       <c r="D136">
-        <v>14.67819429548626</v>
+        <v>15.3041445164493</v>
       </c>
       <c r="E136">
-        <v>14.02882887333754</v>
+        <v>15.73746336571133</v>
       </c>
       <c r="F136">
-        <v>14.72051889262071</v>
+        <v>15.3837811444955</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>14.15888403697975</v>
+        <v>15.56962160796279</v>
       </c>
       <c r="C137">
-        <v>14.34281978105483</v>
+        <v>13.64353673656045</v>
       </c>
       <c r="D137">
-        <v>14.66107700355529</v>
+        <v>15.27148430749999</v>
       </c>
       <c r="E137">
-        <v>14.01552907730473</v>
+        <v>15.70078473131255</v>
       </c>
       <c r="F137">
-        <v>14.67995190602113</v>
+        <v>15.35772461073709</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>14.15454757775373</v>
+        <v>15.52646807165561</v>
       </c>
       <c r="C138">
-        <v>14.31911526434215</v>
+        <v>13.6319391565955</v>
       </c>
       <c r="D138">
-        <v>14.64392141163374</v>
+        <v>15.23832998304419</v>
       </c>
       <c r="E138">
-        <v>14.00213299328814</v>
+        <v>15.66336969605732</v>
       </c>
       <c r="F138">
-        <v>14.63942275863729</v>
+        <v>15.33104488481669</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>14.15012819978825</v>
+        <v>15.4831331840114</v>
       </c>
       <c r="C139">
-        <v>14.29527874914263</v>
+        <v>13.62034590321668</v>
       </c>
       <c r="D139">
-        <v>14.6267306719829</v>
+        <v>15.20470155285862</v>
       </c>
       <c r="E139">
-        <v>13.98864246389989</v>
+        <v>15.6252549136222</v>
       </c>
       <c r="F139">
-        <v>14.59893310566277</v>
+        <v>15.30375726787954</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>14.14562720118468</v>
+        <v>15.43964028147547</v>
       </c>
       <c r="C140">
-        <v>14.27131465587057</v>
+        <v>13.60875697795553</v>
       </c>
       <c r="D140">
-        <v>14.60950775999213</v>
+        <v>15.17061812453301</v>
       </c>
       <c r="E140">
-        <v>13.97505929156328</v>
+        <v>15.58647519216147</v>
       </c>
       <c r="F140">
-        <v>14.55848447797007</v>
+        <v>15.275876716306</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>14.14104584525409</v>
+        <v>15.39601005281386</v>
       </c>
       <c r="C141">
-        <v>14.24722728443382</v>
+        <v>13.59717238234254</v>
       </c>
       <c r="D141">
-        <v>14.59225542748082</v>
+        <v>15.13609796542911</v>
       </c>
       <c r="E141">
-        <v>13.96138524380879</v>
+        <v>15.54706358593885</v>
       </c>
       <c r="F141">
-        <v>14.51807828286838</v>
+        <v>15.24741785199451</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>14.13638536194769</v>
+        <v>15.35226083168409</v>
       </c>
       <c r="C142">
-        <v>14.22302078662169</v>
+        <v>13.58559211790927</v>
       </c>
       <c r="D142">
-        <v>14.57497626261786</v>
+        <v>15.10115852630778</v>
       </c>
       <c r="E142">
-        <v>13.94762197859743</v>
+        <v>15.50705148912881</v>
       </c>
       <c r="F142">
-        <v>14.47771578866399</v>
+        <v>15.21839496649388</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>14.13164697378224</v>
+        <v>15.30840888098938</v>
       </c>
       <c r="C143">
-        <v>14.19869915500844</v>
+        <v>13.5740161861874</v>
       </c>
       <c r="D143">
-        <v>14.55767267326298</v>
+        <v>15.06581649877469</v>
       </c>
       <c r="E143">
-        <v>13.93377118900743</v>
+        <v>15.46646871814937</v>
       </c>
       <c r="F143">
-        <v>14.43739817792908</v>
+        <v>15.18882203123858</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>14.12683187174</v>
+        <v>15.26446863435611</v>
       </c>
       <c r="C144">
-        <v>14.17426627487364</v>
+        <v>13.56244458870433</v>
       </c>
       <c r="D144">
-        <v>14.5403469220676</v>
+        <v>15.03008784652116</v>
       </c>
       <c r="E144">
-        <v>13.9198345320013</v>
+        <v>15.4253435989919</v>
       </c>
       <c r="F144">
-        <v>14.39712652113841</v>
+        <v>15.15871270403153</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.1219412216193</v>
+        <v>15.22045290761784</v>
       </c>
       <c r="C145">
-        <v>14.14972590089765</v>
+        <v>13.55087732698934</v>
       </c>
       <c r="D145">
-        <v>14.5230011253355</v>
+        <v>14.99398784284288</v>
       </c>
       <c r="E145">
-        <v>13.90581362374387</v>
+        <v>15.38370305016263</v>
       </c>
       <c r="F145">
-        <v>14.35690181750775</v>
+        <v>15.12808033527604</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>14.11697615431184</v>
+        <v>15.17637309409589</v>
       </c>
       <c r="C146">
-        <v>14.12508164531815</v>
+        <v>13.53931440257296</v>
       </c>
       <c r="D146">
-        <v>14.50563726361055</v>
+        <v>14.95753111382304</v>
       </c>
       <c r="E146">
-        <v>13.89171005206717</v>
+        <v>15.34157264436319</v>
       </c>
       <c r="F146">
-        <v>14.31672497126167</v>
+        <v>15.09693797765374</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>14.11193779329271</v>
+        <v>15.13223932158667</v>
       </c>
       <c r="C147">
-        <v>14.10033702539576</v>
+        <v>13.52775581698355</v>
       </c>
       <c r="D147">
-        <v>14.48825720248703</v>
+        <v>14.92073165885942</v>
       </c>
       <c r="E147">
-        <v>13.87752528345939</v>
+        <v>15.29897670199999</v>
       </c>
       <c r="F147">
-        <v>14.27659683497862</v>
+        <v>15.06529839071287</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>14.10682723463567</v>
+        <v>15.08806060239327</v>
       </c>
       <c r="C148">
-        <v>14.07549544233427</v>
+        <v>13.51620157174811</v>
       </c>
       <c r="D148">
-        <v>14.47086268059183</v>
+        <v>14.88360289295064</v>
       </c>
       <c r="E148">
-        <v>13.86326083973991</v>
+        <v>15.25593833791589</v>
       </c>
       <c r="F148">
-        <v>14.23651817740723</v>
+        <v>15.03317404922963</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>14.10164555323211</v>
+        <v>15.04384496328728</v>
       </c>
       <c r="C149">
-        <v>14.05056017170416</v>
+        <v>13.50465166839536</v>
       </c>
       <c r="D149">
-        <v>14.45345534275781</v>
+        <v>14.8461576691723</v>
       </c>
       <c r="E149">
-        <v>13.84891821205872</v>
+        <v>15.21247953964974</v>
       </c>
       <c r="F149">
-        <v>14.19648972214395</v>
+        <v>15.0005771502093</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>14.09639379601469</v>
+        <v>14.99959955835341</v>
       </c>
       <c r="C150">
-        <v>14.02553440138198</v>
+        <v>13.49310610845332</v>
       </c>
       <c r="D150">
-        <v>14.43603672300447</v>
+        <v>14.8084083067467</v>
       </c>
       <c r="E150">
-        <v>13.83449885010555</v>
+        <v>15.16862122752552</v>
       </c>
       <c r="F150">
-        <v>14.15651213210021</v>
+        <v>14.9675196182622</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>14.09107299661061</v>
+        <v>14.95533077128965</v>
       </c>
       <c r="C151">
-        <v>14.00042121804558</v>
+        <v>13.48156489345139</v>
       </c>
       <c r="D151">
-        <v>14.4186082734331</v>
+        <v>14.77036662379993</v>
       </c>
       <c r="E151">
-        <v>13.8200041776948</v>
+        <v>15.12438330595005</v>
       </c>
       <c r="F151">
-        <v>14.11658601828867</v>
+        <v>14.93401311469877</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>14.08568416789798</v>
+        <v>14.91104430180364</v>
       </c>
       <c r="C152">
-        <v>13.97522359781488</v>
+        <v>13.47002802491682</v>
       </c>
       <c r="D152">
-        <v>14.40117135235579</v>
+        <v>14.73204395282072</v>
       </c>
       <c r="E152">
-        <v>13.80543553014397</v>
+        <v>15.07978473257315</v>
       </c>
       <c r="F152">
-        <v>14.07671195214061</v>
+        <v>14.90006904084762</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>14.08022830328943</v>
+        <v>14.86674523881068</v>
       </c>
       <c r="C153">
-        <v>13.94994443507918</v>
+        <v>13.4584955043774</v>
       </c>
       <c r="D153">
-        <v>14.38372724619007</v>
+        <v>14.69345117240005</v>
       </c>
       <c r="E153">
-        <v>13.790794271657</v>
+        <v>15.03484355536589</v>
       </c>
       <c r="F153">
-        <v>14.03689045620485</v>
+        <v>14.86569854834614</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>14.07470637348377</v>
+        <v>14.82243812889404</v>
       </c>
       <c r="C154">
-        <v>13.92458653591884</v>
+        <v>13.44696733336079</v>
       </c>
       <c r="D154">
-        <v>14.36627715192124</v>
+        <v>14.65459872479836</v>
       </c>
       <c r="E154">
-        <v>13.77608174141174</v>
+        <v>14.98957697031555</v>
       </c>
       <c r="F154">
-        <v>13.99712202183127</v>
+        <v>14.83091254096917</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>14.06911933182842</v>
+        <v>14.77812705493694</v>
       </c>
       <c r="C155">
-        <v>13.89915260895785</v>
+        <v>13.43544351339583</v>
       </c>
       <c r="D155">
-        <v>14.34882221544874</v>
+        <v>14.61549663660719</v>
       </c>
       <c r="E155">
-        <v>13.76129924312448</v>
+        <v>14.94400136822817</v>
       </c>
       <c r="F155">
-        <v>13.95740709992141</v>
+        <v>14.79572168539761</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>14.06346811756691</v>
+        <v>14.73381566679983</v>
       </c>
       <c r="C156">
-        <v>13.87364528704955</v>
+        <v>13.42392404601514</v>
       </c>
       <c r="D156">
-        <v>14.33136352315366</v>
+        <v>14.57615454378431</v>
       </c>
       <c r="E156">
-        <v>13.74644805647159</v>
+        <v>14.89813236931881</v>
       </c>
       <c r="F156">
-        <v>13.91774611534373</v>
+        <v>14.76013641339882</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>14.0577536513071</v>
+        <v>14.68950725838046</v>
       </c>
       <c r="C157">
-        <v>13.84806712567395</v>
+        <v>13.4124089327457</v>
       </c>
       <c r="D157">
-        <v>14.31390206635693</v>
+        <v>14.53658170273639</v>
       </c>
       <c r="E157">
-        <v>13.73152941272386</v>
+        <v>14.85198487788391</v>
       </c>
       <c r="F157">
-        <v>13.87813945132028</v>
+        <v>14.72416692976896</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>14.05197683488957</v>
+        <v>14.64520477803538</v>
       </c>
       <c r="C158">
-        <v>13.82242059408218</v>
+        <v>13.40089817511704</v>
       </c>
       <c r="D158">
-        <v>14.29643881185442</v>
+        <v>14.49678701477487</v>
       </c>
       <c r="E158">
-        <v>13.71654454098098</v>
+        <v>14.80557310842189</v>
       </c>
       <c r="F158">
-        <v>13.83858747818913</v>
+        <v>14.68782321792557</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>14.04613854939154</v>
+        <v>14.60091087844026</v>
       </c>
       <c r="C159">
-        <v>13.79670809165582</v>
+        <v>13.38939177465902</v>
       </c>
       <c r="D159">
-        <v>14.2789746879077</v>
+        <v>14.45677903886423</v>
       </c>
       <c r="E159">
-        <v>13.70149464900538</v>
+        <v>14.75891062902252</v>
       </c>
       <c r="F159">
-        <v>13.79909054449768</v>
+        <v>14.6511150439111</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>14.04023966771883</v>
+        <v>14.55662795000703</v>
       </c>
       <c r="C160">
-        <v>13.77093194972746</v>
+        <v>13.37788973290271</v>
       </c>
       <c r="D160">
-        <v>14.2615105422513</v>
+        <v>14.41656600779893</v>
       </c>
       <c r="E160">
-        <v>13.68638091821208</v>
+        <v>14.71201039701075</v>
       </c>
       <c r="F160">
-        <v>13.75964896643999</v>
+        <v>14.61405196484905</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>14.03428104454659</v>
+        <v>14.51235812953821</v>
       </c>
       <c r="C161">
-        <v>13.74509442305568</v>
+        <v>13.36639205138122</v>
       </c>
       <c r="D161">
-        <v>14.24404716828014</v>
+        <v>14.37615584576525</v>
       </c>
       <c r="E161">
-        <v>13.67120450902001</v>
+        <v>14.66488478377806</v>
       </c>
       <c r="F161">
-        <v>13.72026302488835</v>
+        <v>14.57664333023686</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>14.02826351940058</v>
+        <v>14.46810335952627</v>
       </c>
       <c r="C162">
-        <v>13.71919770214256</v>
+        <v>13.35489873162545</v>
       </c>
       <c r="D162">
-        <v>14.22658536212924</v>
+        <v>14.33555617545978</v>
       </c>
       <c r="E162">
-        <v>13.65596655033029</v>
+        <v>14.61754561580936</v>
       </c>
       <c r="F162">
-        <v>13.68093302108065</v>
+        <v>14.53889829189352</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>14.02218790961309</v>
+        <v>14.42386537718881</v>
       </c>
       <c r="C163">
-        <v>13.69324391743492</v>
+        <v>13.34340977516814</v>
       </c>
       <c r="D163">
-        <v>14.20912585763776</v>
+        <v>14.29477434785073</v>
       </c>
       <c r="E163">
-        <v>13.64066816031626</v>
+        <v>14.57000419391445</v>
       </c>
       <c r="F163">
-        <v>13.64165923539665</v>
+        <v>14.50082580388479</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>14.01605502720541</v>
+        <v>14.37964576826882</v>
       </c>
       <c r="C164">
-        <v>13.66723513124044</v>
+        <v>13.33192518354273</v>
       </c>
       <c r="D164">
-        <v>14.19166931414282</v>
+        <v>14.25381742982708</v>
       </c>
       <c r="E164">
-        <v>13.62531043904414</v>
+        <v>14.52227132509109</v>
       </c>
       <c r="F164">
-        <v>13.60244187864151</v>
+        <v>14.46243463254907</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>14.00986566711029</v>
+        <v>14.33544595503229</v>
       </c>
       <c r="C165">
-        <v>13.64117334683129</v>
+        <v>13.320444958283</v>
       </c>
       <c r="D165">
-        <v>14.17421640579694</v>
+        <v>14.21269224258143</v>
       </c>
       <c r="E165">
-        <v>13.60989446601414</v>
+        <v>14.47435734961847</v>
       </c>
       <c r="F165">
-        <v>13.56328119608833</v>
+        <v>14.42373335555853</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>14.00362061074512</v>
+        <v>14.29126724280034</v>
       </c>
       <c r="C166">
-        <v>13.61506051426433</v>
+        <v>13.30896910092285</v>
       </c>
       <c r="D166">
-        <v>14.15676775888661</v>
+        <v>14.1714053678859</v>
       </c>
       <c r="E166">
-        <v>13.59442130313557</v>
+        <v>14.42627215906224</v>
       </c>
       <c r="F166">
-        <v>13.52417742305072</v>
+        <v>14.38473037174737</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>13.99732062202173</v>
+        <v>14.24711080157662</v>
       </c>
       <c r="C167">
-        <v>13.58889852288973</v>
+        <v>13.29749761299832</v>
       </c>
       <c r="D167">
-        <v>14.13932394246584</v>
+        <v>14.12996312535951</v>
       </c>
       <c r="E167">
-        <v>13.57889197985798</v>
+        <v>14.37802522348257</v>
       </c>
       <c r="F167">
-        <v>13.48513077069008</v>
+        <v>14.34543390678937</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>13.99096645488416</v>
+        <v>14.2029777083859</v>
       </c>
       <c r="C168">
-        <v>13.5626892078951</v>
+        <v>13.28603049604577</v>
       </c>
       <c r="D168">
-        <v>14.12188552319125</v>
+        <v>14.08837164496217</v>
       </c>
       <c r="E168">
-        <v>13.56330752077298</v>
+        <v>14.32962560857009</v>
       </c>
       <c r="F168">
-        <v>13.44614140341744</v>
+        <v>14.30585201212048</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>13.98455885107755</v>
+        <v>14.15886893124354</v>
       </c>
       <c r="C169">
-        <v>13.53643435709987</v>
+        <v>13.27456775160242</v>
       </c>
       <c r="D169">
-        <v>14.10445303250181</v>
+        <v>14.04663681593481</v>
       </c>
       <c r="E169">
-        <v>13.54766893620931</v>
+        <v>14.2810820154717</v>
       </c>
       <c r="F169">
-        <v>13.40720952432918</v>
+        <v>14.26599256492182</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>13.97809853929099</v>
+        <v>14.11478535984703</v>
       </c>
       <c r="C170">
-        <v>13.51013570414924</v>
+        <v>13.26310938120534</v>
       </c>
       <c r="D170">
-        <v>14.08702696883261</v>
+        <v>14.00476432771241</v>
       </c>
       <c r="E170">
-        <v>13.53197721755118</v>
+        <v>14.23240274926637</v>
       </c>
       <c r="F170">
-        <v>13.36833531165934</v>
+        <v>14.22586329390234</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>13.97158623438533</v>
+        <v>14.0707278003929</v>
       </c>
       <c r="C171">
-        <v>13.48379493307838</v>
+        <v>13.25165538639162</v>
       </c>
       <c r="D171">
-        <v>14.0696078106111</v>
+        <v>13.96275968177411</v>
       </c>
       <c r="E171">
-        <v>13.51623334113177</v>
+        <v>14.18359581702259</v>
       </c>
       <c r="F171">
-        <v>13.3295189217507</v>
+        <v>14.18547176811065</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>13.96502263875893</v>
+        <v>14.02669699187201</v>
       </c>
       <c r="C172">
-        <v>13.45741368559919</v>
+        <v>13.24020576870146</v>
       </c>
       <c r="D172">
-        <v>14.0521960160386</v>
+        <v>13.92062817210477</v>
       </c>
       <c r="E172">
-        <v>13.50043825036508</v>
+        <v>14.134668879058</v>
       </c>
       <c r="F172">
-        <v>13.29076050652865</v>
+        <v>14.14482537951206</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>13.95840844581607</v>
+        <v>13.98269361048341</v>
       </c>
       <c r="C173">
-        <v>13.43099355496402</v>
+        <v>13.22876052967492</v>
       </c>
       <c r="D173">
-        <v>14.03479201667244</v>
+        <v>13.87837492914538</v>
       </c>
       <c r="E173">
-        <v>13.48459288750327</v>
+        <v>14.08562926852576</v>
       </c>
       <c r="F173">
-        <v>13.25206021704158</v>
+        <v>14.10393139435497</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>13.95174433667226</v>
+        <v>13.9387182746411</v>
       </c>
       <c r="C174">
-        <v>13.40453608902532</v>
+        <v>13.21731967085298</v>
       </c>
       <c r="D174">
-        <v>14.01739622135911</v>
+        <v>13.83600490053923</v>
       </c>
       <c r="E174">
-        <v>13.46869818364242</v>
+        <v>14.03648406980836</v>
       </c>
       <c r="F174">
-        <v>13.21341819340908</v>
+        <v>14.0627969279671</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>13.94503098088879</v>
+        <v>13.89477155562831</v>
       </c>
       <c r="C175">
-        <v>13.37804279771614</v>
+        <v>13.20588319377688</v>
       </c>
       <c r="D175">
-        <v>14.0000090280689</v>
+        <v>13.79352286944116</v>
       </c>
       <c r="E175">
-        <v>13.45275505182928</v>
+        <v>13.98724002548193</v>
       </c>
       <c r="F175">
-        <v>13.17483456484144</v>
+        <v>14.02142894345172</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>13.93826903463077</v>
+        <v>13.8508539745956</v>
       </c>
       <c r="C176">
-        <v>13.35151514751151</v>
+        <v>13.19445109998852</v>
       </c>
       <c r="D176">
-        <v>13.98263081284071</v>
+        <v>13.75093346549631</v>
       </c>
       <c r="E176">
-        <v>13.43676439168104</v>
+        <v>13.93790366000141</v>
       </c>
       <c r="F176">
-        <v>13.13630945984562</v>
+        <v>13.97983426139379</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>13.93145914737894</v>
+        <v>13.8069660167172</v>
       </c>
       <c r="C177">
-        <v>13.32495456334954</v>
+        <v>13.18302339103163</v>
       </c>
       <c r="D177">
-        <v>13.96526192425334</v>
+        <v>13.70824115538632</v>
       </c>
       <c r="E177">
-        <v>13.42072707606436</v>
+        <v>13.8884812247405</v>
       </c>
       <c r="F177">
-        <v>13.09784300031778</v>
+        <v>13.93801957963107</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>13.92460195705288</v>
+        <v>13.7631081250796</v>
       </c>
       <c r="C178">
-        <v>13.29836243610298</v>
+        <v>13.17160006845044</v>
       </c>
       <c r="D178">
-        <v>13.94790270845321</v>
+        <v>13.66545027178936</v>
       </c>
       <c r="E178">
-        <v>13.40464397435817</v>
+        <v>13.83897871511165</v>
       </c>
       <c r="F178">
-        <v>13.05943530073082</v>
+        <v>13.89599145835675</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>13.91769809169981</v>
+        <v>13.71928071245031</v>
       </c>
       <c r="C179">
-        <v>13.27174011758564</v>
+        <v>13.16018113379003</v>
       </c>
       <c r="D179">
-        <v>13.93055349301358</v>
+        <v>13.6225649996488</v>
       </c>
       <c r="E179">
-        <v>13.38851594610444</v>
+        <v>13.78940191820027</v>
       </c>
       <c r="F179">
-        <v>13.02108646994719</v>
+        <v>13.85375631562406</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>13.9107481659079</v>
+        <v>13.67548415575948</v>
       </c>
       <c r="C180">
-        <v>13.24508892162162</v>
+        <v>13.14876658859638</v>
       </c>
       <c r="D180">
-        <v>13.91321457888029</v>
+        <v>13.57958938895612</v>
       </c>
       <c r="E180">
-        <v>13.37234383505075</v>
+        <v>13.73975637862962</v>
       </c>
       <c r="F180">
-        <v>12.98279661714672</v>
+        <v>13.8113204589951</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>13.90375278876287</v>
+        <v>13.63171881267694</v>
       </c>
       <c r="C181">
-        <v>13.21841013133025</v>
+        <v>13.1373564344164</v>
       </c>
       <c r="D181">
-        <v>13.89588626551496</v>
+        <v>13.53652736735953</v>
       </c>
       <c r="E181">
-        <v>13.35612847284975</v>
+        <v>13.69004744799148</v>
       </c>
       <c r="F181">
-        <v>12.94456584694303</v>
+        <v>13.76869006929801</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>13.89671255885643</v>
+        <v>13.58798501198684</v>
       </c>
       <c r="C182">
-        <v>13.19170499465991</v>
+        <v>13.12595067279801</v>
       </c>
       <c r="D182">
-        <v>13.87856883585928</v>
+        <v>13.49338272649775</v>
       </c>
       <c r="E182">
-        <v>13.33987067168265</v>
+        <v>13.64028027298732</v>
       </c>
       <c r="F182">
-        <v>12.90639425033171</v>
+        <v>13.72587120041175</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>13.88962806563675</v>
+        <v>13.54428305390633</v>
       </c>
       <c r="C183">
-        <v>13.16497472483143</v>
+        <v>13.11454930529007</v>
       </c>
       <c r="D183">
-        <v>13.86126255622928</v>
+        <v>13.45015914953549</v>
       </c>
       <c r="E183">
-        <v>13.3235712372052</v>
+        <v>13.59045980137952</v>
       </c>
       <c r="F183">
-        <v>12.86828192511814</v>
+        <v>13.68286979321157</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>13.88249988762702</v>
+        <v>13.50061323681438</v>
       </c>
       <c r="C184">
-        <v>13.13822050729489</v>
+        <v>13.10315233344243</v>
       </c>
       <c r="D184">
-        <v>13.84396768268341</v>
+        <v>13.40686019938122</v>
       </c>
       <c r="E184">
-        <v>13.30723096573448</v>
+        <v>13.54059081572153</v>
       </c>
       <c r="F184">
-        <v>12.8302289639111</v>
+        <v>13.63969167806201</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>13.87532859546701</v>
+        <v>13.45697582565234</v>
       </c>
       <c r="C185">
-        <v>13.11144349499846</v>
+        <v>13.09175975880584</v>
       </c>
       <c r="D185">
-        <v>13.82668446167615</v>
+        <v>13.36348932715188</v>
       </c>
       <c r="E185">
-        <v>13.29085064053273</v>
+        <v>13.49067790498359</v>
       </c>
       <c r="F185">
-        <v>12.79223545413016</v>
+        <v>13.59634257103132</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>13.86811475222579</v>
+        <v>13.41337106798754</v>
       </c>
       <c r="C186">
-        <v>13.08464480747018</v>
+        <v>13.08037158293213</v>
       </c>
       <c r="D186">
-        <v>13.80941312690119</v>
+        <v>13.3200498831137</v>
       </c>
       <c r="E186">
-        <v>13.27443103414755</v>
+        <v>13.44072550695589</v>
       </c>
       <c r="F186">
-        <v>12.75430147593512</v>
+        <v>13.55282807403429</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>13.86085891204677</v>
+        <v>13.3697992136015</v>
       </c>
       <c r="C187">
-        <v>13.05782554247991</v>
+        <v>13.06898780737415</v>
       </c>
       <c r="D187">
-        <v>13.79215390067452</v>
+        <v>13.27654510798204</v>
       </c>
       <c r="E187">
-        <v>13.25797290337952</v>
+        <v>13.39073789829128</v>
       </c>
       <c r="F187">
-        <v>12.71642711342095</v>
+        <v>13.5091536928897</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>13.85356162007817</v>
+        <v>13.32626047867761</v>
       </c>
       <c r="C188">
-        <v>13.03098676931855</v>
+        <v>13.05760843368581</v>
       </c>
       <c r="D188">
-        <v>13.77490699825734</v>
+        <v>13.23297815101473</v>
       </c>
       <c r="E188">
-        <v>13.24147699810227</v>
+        <v>13.34071919314058</v>
       </c>
       <c r="F188">
-        <v>12.67861244586938</v>
+        <v>13.46532482864394</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>13.8462234124706</v>
+        <v>13.28275507494615</v>
       </c>
       <c r="C189">
-        <v>13.00412953209417</v>
+        <v>13.04623346342207</v>
       </c>
       <c r="D189">
-        <v>13.75767262467081</v>
+        <v>13.18935206374772</v>
       </c>
       <c r="E189">
-        <v>13.22494405984277</v>
+        <v>13.29067337574914</v>
       </c>
       <c r="F189">
-        <v>12.64085754767313</v>
+        <v>13.42134677140454</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>13.83884481952286</v>
+        <v>13.2392832085968</v>
       </c>
       <c r="C190">
-        <v>12.97725483625378</v>
+        <v>13.03486289813855</v>
       </c>
       <c r="D190">
-        <v>13.74045097336459</v>
+        <v>13.1456698050976</v>
       </c>
       <c r="E190">
-        <v>13.20837481893127</v>
+        <v>13.2406042784066</v>
       </c>
       <c r="F190">
-        <v>12.6031624923282</v>
+        <v>13.37722472382028</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>13.8314263630906</v>
+        <v>13.19584506312595</v>
       </c>
       <c r="C191">
-        <v>12.95036367146012</v>
+        <v>13.02349673939209</v>
       </c>
       <c r="D191">
-        <v>13.72324223320244</v>
+        <v>13.10193425095101</v>
       </c>
       <c r="E191">
-        <v>13.19176999628245</v>
+        <v>13.19051560788258</v>
       </c>
       <c r="F191">
-        <v>12.56552735163734</v>
+        <v>13.33296379179151</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>13.82396855737102</v>
+        <v>13.1524408215703</v>
       </c>
       <c r="C192">
-        <v>12.9234570090959</v>
+        <v>13.01213498874084</v>
       </c>
       <c r="D192">
-        <v>13.70604658446313</v>
+        <v>13.05814818598216</v>
       </c>
       <c r="E192">
-        <v>13.17513029793651</v>
+        <v>13.14041094435547</v>
       </c>
       <c r="F192">
-        <v>12.52795219486972</v>
+        <v>13.28856898352668</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>13.81647190734228</v>
+        <v>13.10907065708696</v>
       </c>
       <c r="C193">
-        <v>12.89653579516457</v>
+        <v>13.00077764774387</v>
       </c>
       <c r="D193">
-        <v>13.68886419597642</v>
+        <v>13.01431431938055</v>
       </c>
       <c r="E193">
-        <v>13.15845642419792</v>
+        <v>13.0902937395411</v>
       </c>
       <c r="F193">
-        <v>12.49043708864284</v>
+        <v>13.2440452138325</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>13.80893691314527</v>
+        <v>13.06573473193358</v>
       </c>
       <c r="C194">
-        <v>12.86960095176351</v>
+        <v>12.98942471796135</v>
       </c>
       <c r="D194">
-        <v>13.67169523333112</v>
+        <v>12.97043527932308</v>
       </c>
       <c r="E194">
-        <v>13.14174906854971</v>
+        <v>13.04016733833429</v>
       </c>
       <c r="F194">
-        <v>12.45298209883528</v>
+        <v>13.19939731587498</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>13.80136406705457</v>
+        <v>13.02243320542153</v>
       </c>
       <c r="C195">
-        <v>12.84265335413059</v>
+        <v>12.97807620095406</v>
       </c>
       <c r="D195">
-        <v>13.65453985457611</v>
+        <v>12.92651361628148</v>
       </c>
       <c r="E195">
-        <v>13.12500891414165</v>
+        <v>12.99003496626333</v>
       </c>
       <c r="F195">
-        <v>12.41558728948977</v>
+        <v>13.15463003370878</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>13.7937538544971</v>
+        <v>12.97916622985896</v>
       </c>
       <c r="C196">
-        <v>12.81569389148082</v>
+        <v>12.96673209828413</v>
       </c>
       <c r="D196">
-        <v>13.63739820924381</v>
+        <v>12.88255181176714</v>
       </c>
       <c r="E196">
-        <v>13.10823663572605</v>
+        <v>12.93989974634691</v>
       </c>
       <c r="F196">
-        <v>12.37825272244484</v>
+        <v>13.10974801869008</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>13.78610675250225</v>
+        <v>12.93593394960826</v>
       </c>
       <c r="C197">
-        <v>12.78872342091081</v>
+        <v>12.95539241151495</v>
       </c>
       <c r="D197">
-        <v>13.62027044113508</v>
+        <v>12.83855227164553</v>
       </c>
       <c r="E197">
-        <v>13.09143289423058</v>
+        <v>12.8897647009813</v>
       </c>
       <c r="F197">
-        <v>12.34097845820052</v>
+        <v>13.06475584918812</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>13.77842323294539</v>
+        <v>12.89273650810124</v>
       </c>
       <c r="C198">
-        <v>12.76174278070646</v>
+        <v>12.94405714221086</v>
       </c>
       <c r="D198">
-        <v>13.60315668924973</v>
+        <v>12.79451733784302</v>
       </c>
       <c r="E198">
-        <v>13.07459834548658</v>
+        <v>12.83963274779278</v>
       </c>
       <c r="F198">
-        <v>12.30376455671351</v>
+        <v>13.01965802070703</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>13.77070376109214</v>
+        <v>12.84957404248719</v>
       </c>
       <c r="C199">
-        <v>12.73475277821891</v>
+        <v>12.93272629193728</v>
       </c>
       <c r="D199">
-        <v>13.58605708578107</v>
+        <v>12.75044928510939</v>
       </c>
       <c r="E199">
-        <v>13.05773363963114</v>
+        <v>12.78950671896253</v>
       </c>
       <c r="F199">
-        <v>12.26661107653547</v>
+        <v>12.97445894555324</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>13.76294879571299</v>
+        <v>12.80644668356065</v>
       </c>
       <c r="C200">
-        <v>12.70775420181232</v>
+        <v>12.92139986226049</v>
       </c>
       <c r="D200">
-        <v>13.56897175656233</v>
+        <v>12.70635032298921</v>
       </c>
       <c r="E200">
-        <v>13.04083941720175</v>
+        <v>12.73938935025975</v>
       </c>
       <c r="F200">
-        <v>12.22951807293177</v>
+        <v>12.92916296109677</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13.75515878759243</v>
+        <v>12.76335456265345</v>
       </c>
       <c r="C201">
-        <v>12.68074783563903</v>
+        <v>12.91007785474802</v>
       </c>
       <c r="D201">
-        <v>13.55190082377859</v>
+        <v>12.66222260286042</v>
       </c>
       <c r="E201">
-        <v>13.0239163111028</v>
+        <v>12.68928329318377</v>
       </c>
       <c r="F201">
-        <v>12.19248560246304</v>
+        <v>12.88377433255193</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13.74733418181256</v>
+        <v>12.72029780502515</v>
       </c>
       <c r="C202">
-        <v>12.65373443983532</v>
+        <v>12.89876027096856</v>
       </c>
       <c r="D202">
-        <v>13.53484440405528</v>
+        <v>12.61806820987063</v>
       </c>
       <c r="E202">
-        <v>13.0069649424011</v>
+        <v>12.6391911184749</v>
       </c>
       <c r="F202">
-        <v>12.155513719988</v>
+        <v>12.83829724978884</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13.73947541923357</v>
+        <v>12.67727653221072</v>
       </c>
       <c r="C203">
-        <v>12.62671475785832</v>
+        <v>12.88744711249182</v>
       </c>
       <c r="D203">
-        <v>13.51780260801975</v>
+        <v>12.57388917818689</v>
       </c>
       <c r="E203">
-        <v>12.98998592692881</v>
+        <v>12.58911531177343</v>
       </c>
       <c r="F203">
-        <v>12.11860247883869</v>
+        <v>12.79273582671876</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.73158293412387</v>
+        <v>12.63429086534822</v>
       </c>
       <c r="C204">
-        <v>12.59968950218593</v>
+        <v>12.87613838088865</v>
       </c>
       <c r="D204">
-        <v>13.50077554323812</v>
+        <v>12.52968748757681</v>
       </c>
       <c r="E204">
-        <v>12.97297987524897</v>
+        <v>12.5390582884225</v>
       </c>
       <c r="F204">
-        <v>12.08175193078646</v>
+        <v>12.74709411415178</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.7236571551997</v>
+        <v>12.59134092108745</v>
       </c>
       <c r="C205">
-        <v>12.5726593857266</v>
+        <v>12.86483407773088</v>
       </c>
       <c r="D205">
-        <v>13.48376331261017</v>
+        <v>12.48546506668256</v>
       </c>
       <c r="E205">
-        <v>12.9559473893122</v>
+        <v>12.48902238638715</v>
       </c>
       <c r="F205">
-        <v>12.04496212789909</v>
+        <v>12.70137609334929</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.71569850579901</v>
+        <v>12.54842681429912</v>
       </c>
       <c r="C206">
-        <v>12.54562510046627</v>
+        <v>12.85353420459153</v>
       </c>
       <c r="D206">
-        <v>13.46676601362892</v>
+        <v>12.44122376972021</v>
       </c>
       <c r="E206">
-        <v>12.9388890640802</v>
+        <v>12.43900987401869</v>
       </c>
       <c r="F206">
-        <v>12.0082331209817</v>
+        <v>12.65558567308417</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.70770740402863</v>
+        <v>12.50554865849609</v>
       </c>
       <c r="C207">
-        <v>12.51858732296785</v>
+        <v>12.84223876304476</v>
       </c>
       <c r="D207">
-        <v>13.4497837409609</v>
+        <v>12.39696542871279</v>
       </c>
       <c r="E207">
-        <v>12.92180548462743</v>
+        <v>12.38902295412492</v>
       </c>
       <c r="F207">
-        <v>11.97156495933283</v>
+        <v>12.60972670266018</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.69968425123478</v>
+        <v>12.4627065644055</v>
       </c>
       <c r="C208">
-        <v>12.49154671262504</v>
+        <v>12.8309477546658</v>
       </c>
       <c r="D208">
-        <v>13.43281658538886</v>
+        <v>12.35269182225964</v>
       </c>
       <c r="E208">
-        <v>12.90469723063119</v>
+        <v>12.339063760065</v>
       </c>
       <c r="F208">
-        <v>11.93495769203916</v>
+        <v>12.56380296777155</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.69162945975906</v>
+        <v>12.41990064192214</v>
       </c>
       <c r="C209">
-        <v>12.46450391133521</v>
+        <v>12.81966118103101</v>
       </c>
       <c r="D209">
-        <v>13.41586463329073</v>
+        <v>12.30840468482293</v>
       </c>
       <c r="E209">
-        <v>12.88756487667996</v>
+        <v>12.28913436742314</v>
       </c>
       <c r="F209">
-        <v>11.89841136741789</v>
+        <v>12.51781818969024</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.68354343085036</v>
+        <v>12.37713099962588</v>
       </c>
       <c r="C210">
-        <v>12.43745955345395</v>
+        <v>12.80837904371779</v>
       </c>
       <c r="D210">
-        <v>13.39892796762197</v>
+        <v>12.2641056696845</v>
       </c>
       <c r="E210">
-        <v>12.87040898974244</v>
+        <v>12.23923678877891</v>
       </c>
       <c r="F210">
-        <v>11.86192603288676</v>
+        <v>12.47177602731623</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.67542656091449</v>
+        <v>12.33439774398413</v>
       </c>
       <c r="C211">
-        <v>12.41041425728421</v>
+        <v>12.79710134430476</v>
       </c>
       <c r="D211">
-        <v>13.38200666857798</v>
+        <v>12.21979643028232</v>
       </c>
       <c r="E211">
-        <v>12.85323013038827</v>
+        <v>12.18937297903653</v>
       </c>
       <c r="F211">
-        <v>11.82550173479208</v>
+        <v>12.42568008484142</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>13.66727924167134</v>
+        <v>12.29170098147594</v>
       </c>
       <c r="C212">
-        <v>12.38336862819808</v>
+        <v>12.78582808437164</v>
       </c>
       <c r="D212">
-        <v>13.3651008126523</v>
+        <v>12.1754785654766</v>
       </c>
       <c r="E212">
-        <v>12.8360288505436</v>
+        <v>12.13954483923445</v>
       </c>
       <c r="F212">
-        <v>11.78913851956785</v>
+        <v>12.37953390735895</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>13.65910186031203</v>
+        <v>12.24904081741613</v>
       </c>
       <c r="C213">
-        <v>12.35632325256173</v>
+        <v>12.77455926549928</v>
       </c>
       <c r="D213">
-        <v>13.34821047269769</v>
+        <v>12.1311536340937</v>
       </c>
       <c r="E213">
-        <v>12.81880569689037</v>
+        <v>12.08975421019521</v>
       </c>
       <c r="F213">
-        <v>11.75283643288768</v>
+        <v>12.3333409783024</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>13.65089479338272</v>
+        <v>12.20641735545421</v>
       </c>
       <c r="C214">
-        <v>12.3292787095484</v>
+        <v>12.76329488926967</v>
       </c>
       <c r="D214">
-        <v>13.33133571946183</v>
+        <v>12.08682312550139</v>
       </c>
       <c r="E214">
-        <v>12.8015612113653</v>
+        <v>12.04000288930938</v>
       </c>
       <c r="F214">
-        <v>11.71659551996591</v>
+        <v>12.28710473194921</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>13.64265841003792</v>
+        <v>12.16383069968397</v>
       </c>
       <c r="C215">
-        <v>12.30223556666468</v>
+        <v>12.75203495726577</v>
       </c>
       <c r="D215">
-        <v>13.314476620555</v>
+        <v>12.04248852630647</v>
       </c>
       <c r="E215">
-        <v>12.78429592901306</v>
+        <v>11.99029262461975</v>
       </c>
       <c r="F215">
-        <v>11.68041582561844</v>
+        <v>12.24082854725306</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>13.63439308797272</v>
+        <v>12.12128095317721</v>
       </c>
       <c r="C216">
-        <v>12.27519437883308</v>
+        <v>12.74077947107185</v>
       </c>
       <c r="D216">
-        <v>13.29763324013513</v>
+        <v>11.99815127456894</v>
       </c>
       <c r="E216">
-        <v>12.76701037899965</v>
+        <v>11.94062511322052</v>
       </c>
       <c r="F216">
-        <v>11.64429739197503</v>
+        <v>12.19451574778861</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>13.626099194239</v>
+        <v>12.07876821801911</v>
       </c>
       <c r="C217">
-        <v>12.24815568830467</v>
+        <v>12.72952843227329</v>
       </c>
       <c r="D217">
-        <v>13.28080564054528</v>
+        <v>11.95381277178378</v>
       </c>
       <c r="E217">
-        <v>12.74970508248112</v>
+        <v>11.89100199515889</v>
       </c>
       <c r="F217">
-        <v>11.60824026312237</v>
+        <v>12.14816960635106</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>13.61777709160694</v>
+        <v>12.03629259664754</v>
       </c>
       <c r="C218">
-        <v>12.22112001980766</v>
+        <v>12.71828184245658</v>
       </c>
       <c r="D218">
-        <v>13.26399388141092</v>
+        <v>11.90947436860642</v>
       </c>
       <c r="E218">
-        <v>12.73238055568678</v>
+        <v>11.84142488765544</v>
       </c>
       <c r="F218">
-        <v>11.57224448253107</v>
+        <v>12.10179334750362</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>13.60942713868856</v>
+        <v>11.99385419079687</v>
       </c>
       <c r="C219">
-        <v>12.1940878966427</v>
+        <v>12.70703970320937</v>
       </c>
       <c r="D219">
-        <v>13.24719801889251</v>
+        <v>11.86513740045553</v>
       </c>
       <c r="E219">
-        <v>12.71503731061711</v>
+        <v>11.79189536170376</v>
       </c>
       <c r="F219">
-        <v>11.53631009309163</v>
+        <v>12.05539014527723</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>13.60104969006119</v>
+        <v>11.95145310184554</v>
       </c>
       <c r="C220">
-        <v>12.16705982816137</v>
+        <v>12.69580201612027</v>
       </c>
       <c r="D220">
-        <v>13.23041810782273</v>
+        <v>11.82080316346104</v>
       </c>
       <c r="E220">
-        <v>12.69767585281959</v>
+        <v>11.7424149357606</v>
       </c>
       <c r="F220">
-        <v>11.50043713745242</v>
+        <v>12.00896312247934</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>13.59264508454854</v>
+        <v>11.90908943134218</v>
       </c>
       <c r="C221">
-        <v>12.1400363136328</v>
+        <v>12.68456878277924</v>
       </c>
       <c r="D221">
-        <v>13.21365420083403</v>
+        <v>11.77647292108646</v>
       </c>
       <c r="E221">
-        <v>12.68029668237902</v>
+        <v>11.69298508327442</v>
       </c>
       <c r="F221">
-        <v>11.46462565652459</v>
+        <v>11.9625153592352</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.58421367028452</v>
+        <v>11.86676328049236</v>
       </c>
       <c r="C222">
-        <v>12.11301783796921</v>
+        <v>12.67334000477732</v>
       </c>
       <c r="D222">
-        <v>13.19690634849548</v>
+        <v>11.73214789785301</v>
       </c>
       <c r="E222">
-        <v>12.66290029212204</v>
+        <v>11.64360726209324</v>
       </c>
       <c r="F222">
-        <v>11.42887568965116</v>
+        <v>11.91604988872363</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.57575578938827</v>
+        <v>11.82447475053588</v>
       </c>
       <c r="C223">
-        <v>12.0860048777089</v>
+        <v>12.66211568370667</v>
       </c>
       <c r="D223">
-        <v>13.18017459955035</v>
+        <v>11.68782929781141</v>
       </c>
       <c r="E223">
-        <v>12.64548717011726</v>
+        <v>11.59428288725602</v>
       </c>
       <c r="F223">
-        <v>11.39318727944972</v>
+        <v>11.86956969577497</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.56727177834964</v>
+        <v>11.78222394289403</v>
       </c>
       <c r="C224">
-        <v>12.05899790288142</v>
+        <v>12.65089582116062</v>
       </c>
       <c r="D224">
-        <v>13.16345899727458</v>
+        <v>11.64351829265984</v>
       </c>
       <c r="E224">
-        <v>12.62805780047447</v>
+        <v>11.54501332236614</v>
       </c>
       <c r="F224">
-        <v>11.35756046671799</v>
+        <v>11.82307772411334</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.55876196977595</v>
+        <v>11.74001095882484</v>
       </c>
       <c r="C225">
-        <v>12.03199737260217</v>
+        <v>12.63968041873352</v>
       </c>
       <c r="D225">
-        <v>13.14675958722041</v>
+        <v>11.59921602484231</v>
       </c>
       <c r="E225">
-        <v>12.61061266130845</v>
+        <v>11.49579990352612</v>
       </c>
       <c r="F225">
-        <v>11.32199529202496</v>
+        <v>11.77657687471312</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.55022669248645</v>
+        <v>11.69783589992783</v>
       </c>
       <c r="C226">
-        <v>12.00500373688666</v>
+        <v>12.628469478021</v>
       </c>
       <c r="D226">
-        <v>13.13007641233272</v>
+        <v>11.5549236020102</v>
       </c>
       <c r="E226">
-        <v>12.593152225615</v>
+        <v>11.44664394363289</v>
       </c>
       <c r="F226">
-        <v>11.28649179574508</v>
+        <v>11.73007000508408</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.54166626994531</v>
+        <v>11.65569886804224</v>
       </c>
       <c r="C227">
-        <v>11.97801743166742</v>
+        <v>12.6172630006198</v>
       </c>
       <c r="D227">
-        <v>13.11340951383243</v>
+        <v>11.5106421144619</v>
       </c>
       <c r="E227">
-        <v>12.57567695985676</v>
+        <v>11.39754671990467</v>
       </c>
       <c r="F227">
-        <v>11.25105001442091</v>
+        <v>11.68355993023486</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.53308101784296</v>
+        <v>11.61359996494626</v>
       </c>
       <c r="C228">
-        <v>11.95103889082015</v>
+        <v>12.60606098812779</v>
       </c>
       <c r="D228">
-        <v>13.09675893155825</v>
+        <v>11.466372623557</v>
       </c>
       <c r="E228">
-        <v>12.55818732586539</v>
+        <v>11.34850946611317</v>
       </c>
       <c r="F228">
-        <v>11.21566998875157</v>
+        <v>11.6370494278217</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.52447125626982</v>
+        <v>11.57153929300534</v>
       </c>
       <c r="C229">
-        <v>11.92406853755397</v>
+        <v>12.59486344214399</v>
       </c>
       <c r="D229">
-        <v>13.08012469812575</v>
+        <v>11.4221161640153</v>
       </c>
       <c r="E229">
-        <v>12.5406837816534</v>
+        <v>11.29953339769543</v>
       </c>
       <c r="F229">
-        <v>11.18035175778603</v>
+        <v>11.59054123540505</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>13.51583729825373</v>
+        <v>11.52951695482844</v>
       </c>
       <c r="C230">
-        <v>11.89710678699346</v>
+        <v>12.58367036426851</v>
       </c>
       <c r="D230">
-        <v>13.06350685157379</v>
+        <v>11.37787373827317</v>
       </c>
       <c r="E230">
-        <v>12.5231667796755</v>
+        <v>11.25061970118552</v>
       </c>
       <c r="F230">
-        <v>11.14509536019803</v>
+        <v>11.54403804869306</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>13.50717945326395</v>
+        <v>11.48753305318908</v>
       </c>
       <c r="C231">
-        <v>11.8701540447915</v>
+        <v>12.57248175610269</v>
       </c>
       <c r="D231">
-        <v>13.04690542645239</v>
+        <v>11.33364633520462</v>
       </c>
       <c r="E231">
-        <v>12.50563676756133</v>
+        <v>11.20176953462792</v>
       </c>
       <c r="F231">
-        <v>11.1099008344235</v>
+        <v>11.49754252953289</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>13.4984980272899</v>
+        <v>11.44558769147129</v>
       </c>
       <c r="C232">
-        <v>11.84321070796615</v>
+        <v>12.56129761924896</v>
       </c>
       <c r="D232">
-        <v>13.03032045586803</v>
+        <v>11.28943491697031</v>
       </c>
       <c r="E232">
-        <v>12.48809418703006</v>
+        <v>11.15298402102019</v>
       </c>
       <c r="F232">
-        <v>11.07476821793198</v>
+        <v>11.45105730203078</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>13.48979332291985</v>
+        <v>11.4036809734002</v>
       </c>
       <c r="C233">
-        <v>11.81627716874925</v>
+        <v>12.55011795531095</v>
       </c>
       <c r="D233">
-        <v>13.01375197172425</v>
+        <v>11.24524042151939</v>
       </c>
       <c r="E233">
-        <v>12.47053947530181</v>
+        <v>11.10426426769863</v>
       </c>
       <c r="F233">
-        <v>11.03969754786576</v>
+        <v>11.40458495098953</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>13.48106563679266</v>
+        <v>11.36181300306498</v>
       </c>
       <c r="C234">
-        <v>11.78935381086799</v>
+        <v>12.53894276589337</v>
       </c>
       <c r="D234">
-        <v>12.99719999974404</v>
+        <v>11.20106375873683</v>
       </c>
       <c r="E234">
-        <v>12.45297306587203</v>
+        <v>11.05561135450666</v>
       </c>
       <c r="F234">
-        <v>11.00468886211263</v>
+        <v>11.35812802695953</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>13.47231526418549</v>
+        <v>11.3199838851594</v>
       </c>
       <c r="C235">
-        <v>11.7624410109857</v>
+        <v>12.5277720526021</v>
       </c>
       <c r="D235">
-        <v>12.98066457054822</v>
+        <v>11.15690582535386</v>
       </c>
       <c r="E235">
-        <v>12.43539538706751</v>
+        <v>11.00702633669713</v>
       </c>
       <c r="F235">
-        <v>10.9697421978196</v>
+        <v>11.31168904890965</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>13.46354249809538</v>
+        <v>11.27819372478252</v>
       </c>
       <c r="C236">
-        <v>11.73553913545653</v>
+        <v>12.51660581704418</v>
       </c>
       <c r="D236">
-        <v>12.96414571135074</v>
+        <v>11.11276749425308</v>
       </c>
       <c r="E236">
-        <v>12.41780686264698</v>
+        <v>10.95851024003694</v>
       </c>
       <c r="F236">
-        <v>10.93485759189674</v>
+        <v>11.26527050154174</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>13.45474762739581</v>
+        <v>11.23644262753334</v>
       </c>
       <c r="C237">
-        <v>11.70864854716672</v>
+        <v>12.50544406082781</v>
       </c>
       <c r="D237">
-        <v>12.9476434482082</v>
+        <v>11.06864961654874</v>
       </c>
       <c r="E237">
-        <v>12.40020791094093</v>
+        <v>10.91006407689114</v>
       </c>
       <c r="F237">
-        <v>10.90003508100699</v>
+        <v>11.21887483747455</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>13.44593093781976</v>
+        <v>11.19473069971317</v>
       </c>
       <c r="C238">
-        <v>11.68176960181999</v>
+        <v>12.49428678556231</v>
       </c>
       <c r="D238">
-        <v>12.93115780600849</v>
+        <v>11.02455301970417</v>
       </c>
       <c r="E238">
-        <v>12.38259894592671</v>
+        <v>10.86168883568947</v>
       </c>
       <c r="F238">
-        <v>10.86527470114819</v>
+        <v>11.17250446979422</v>
       </c>
     </row>
   </sheetData>
